--- a/database/industries/felezat/faira/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC87E95-E951-4CF0-968E-E09BE95D9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +181,12 @@
     <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +482,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -493,7 +494,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -540,6 +541,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -575,6 +593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1460,101 +1495,101 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>1160</v>
+      </c>
+      <c r="X11" s="11">
+        <v>61</v>
       </c>
       <c r="Y11" s="11">
-        <v>1160</v>
+        <v>80</v>
       </c>
       <c r="Z11" s="11">
-        <v>61</v>
+        <v>500</v>
       </c>
       <c r="AA11" s="11">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AB11" s="11">
-        <v>500</v>
+        <v>634</v>
       </c>
       <c r="AC11" s="11">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AD11" s="11">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="AE11" s="11">
-        <v>120</v>
+        <v>647</v>
       </c>
       <c r="AF11" s="11">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="AG11" s="11">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="AH11" s="11">
-        <v>563</v>
+        <v>307</v>
       </c>
       <c r="AI11" s="11">
-        <v>684</v>
+        <v>843</v>
       </c>
       <c r="AJ11" s="11">
-        <v>307</v>
+        <v>2314</v>
       </c>
       <c r="AK11" s="11">
-        <v>843</v>
+        <v>2277</v>
       </c>
       <c r="AL11" s="11">
-        <v>2314</v>
+        <v>1120</v>
       </c>
       <c r="AM11" s="11">
-        <v>2277</v>
+        <v>153</v>
       </c>
       <c r="AN11" s="11">
-        <v>1120</v>
+        <v>879</v>
       </c>
       <c r="AO11" s="11">
-        <v>153</v>
+        <v>1645</v>
       </c>
       <c r="AP11" s="11">
-        <v>879</v>
+        <v>1825</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1645</v>
+        <v>748</v>
       </c>
       <c r="AR11" s="11">
-        <v>-947</v>
+        <v>1443</v>
       </c>
       <c r="AS11" s="11">
-        <v>748</v>
+        <v>401</v>
       </c>
       <c r="AT11" s="11">
-        <v>1443</v>
+        <v>2101</v>
       </c>
       <c r="AU11" s="11">
-        <v>401</v>
+        <v>1545</v>
       </c>
       <c r="AV11" s="11">
-        <v>2101</v>
+        <v>1814</v>
       </c>
       <c r="AW11" s="11">
-        <v>1545</v>
+        <v>2039</v>
       </c>
       <c r="AX11" s="11">
-        <v>1814</v>
+        <v>1282</v>
       </c>
       <c r="AY11" s="11">
-        <v>2039</v>
+        <v>1202</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
-        <v>1202</v>
+        <v>1066</v>
       </c>
       <c r="BB11" s="11">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1619,101 +1654,101 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>6200</v>
+      </c>
+      <c r="X12" s="13">
+        <v>3520</v>
       </c>
       <c r="Y12" s="13">
-        <v>6200</v>
+        <v>7858</v>
       </c>
       <c r="Z12" s="13">
-        <v>3520</v>
+        <v>9522</v>
       </c>
       <c r="AA12" s="13">
-        <v>7858</v>
+        <v>10202</v>
       </c>
       <c r="AB12" s="13">
-        <v>9522</v>
+        <v>8126</v>
       </c>
       <c r="AC12" s="13">
-        <v>10202</v>
+        <v>4633</v>
       </c>
       <c r="AD12" s="13">
-        <v>8126</v>
+        <v>4708</v>
       </c>
       <c r="AE12" s="13">
-        <v>4633</v>
+        <v>11659</v>
       </c>
       <c r="AF12" s="13">
-        <v>4708</v>
+        <v>9065</v>
       </c>
       <c r="AG12" s="13">
-        <v>11659</v>
+        <v>394</v>
       </c>
       <c r="AH12" s="13">
-        <v>9065</v>
+        <v>6659</v>
       </c>
       <c r="AI12" s="13">
-        <v>394</v>
+        <v>10783</v>
       </c>
       <c r="AJ12" s="13">
-        <v>6659</v>
+        <v>9172</v>
       </c>
       <c r="AK12" s="13">
-        <v>10783</v>
+        <v>10269</v>
       </c>
       <c r="AL12" s="13">
-        <v>9172</v>
+        <v>8441</v>
       </c>
       <c r="AM12" s="13">
-        <v>10269</v>
+        <v>9192</v>
       </c>
       <c r="AN12" s="13">
-        <v>8441</v>
+        <v>11599</v>
       </c>
       <c r="AO12" s="13">
-        <v>9192</v>
+        <v>12616</v>
       </c>
       <c r="AP12" s="13">
-        <v>11599</v>
+        <v>12986</v>
       </c>
       <c r="AQ12" s="13">
-        <v>12616</v>
+        <v>10997</v>
       </c>
       <c r="AR12" s="13">
-        <v>12986</v>
+        <v>10851</v>
       </c>
       <c r="AS12" s="13">
-        <v>10997</v>
+        <v>7961</v>
       </c>
       <c r="AT12" s="13">
-        <v>10851</v>
+        <v>8101</v>
       </c>
       <c r="AU12" s="13">
-        <v>-5167</v>
+        <v>601</v>
       </c>
       <c r="AV12" s="13">
-        <v>8101</v>
+        <v>5697</v>
       </c>
       <c r="AW12" s="13">
-        <v>601</v>
+        <v>7796</v>
       </c>
       <c r="AX12" s="13">
-        <v>5697</v>
+        <v>6153</v>
       </c>
       <c r="AY12" s="13">
-        <v>7796</v>
+        <v>9053</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6153</v>
+        <v>14965</v>
       </c>
       <c r="BA12" s="13">
-        <v>9053</v>
+        <v>14256</v>
       </c>
       <c r="BB12" s="13">
-        <v>14965</v>
+        <v>14267</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1778,23 +1813,23 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>2041</v>
+      </c>
+      <c r="X13" s="11">
+        <v>3028</v>
       </c>
       <c r="Y13" s="11">
-        <v>2041</v>
+        <v>2096</v>
       </c>
       <c r="Z13" s="11">
-        <v>3028</v>
+        <v>497</v>
       </c>
       <c r="AA13" s="11">
-        <v>2096</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="11">
         <v>0</v>
@@ -1803,25 +1838,25 @@
         <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="AF13" s="11">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="AG13" s="11">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AJ13" s="11">
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="11">
         <v>0</v>
@@ -1842,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="AR13" s="11">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AS13" s="11">
         <v>0</v>
       </c>
       <c r="AT13" s="11">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AU13" s="11">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="AV13" s="11">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="11">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
         <v>0</v>
@@ -1872,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1937,11 +1972,11 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
       </c>
       <c r="Y14" s="13">
         <v>0</v>
@@ -1949,11 +1984,11 @@
       <c r="Z14" s="13">
         <v>0</v>
       </c>
-      <c r="AA14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>0</v>
+      <c r="AA14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC14" s="13" t="s">
         <v>58</v>
@@ -2095,100 +2130,100 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>9401</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>6609</v>
       </c>
       <c r="Y15" s="15">
-        <v>9401</v>
+        <v>10034</v>
       </c>
       <c r="Z15" s="15">
-        <v>6609</v>
+        <v>10519</v>
       </c>
       <c r="AA15" s="15">
-        <v>10034</v>
+        <v>10502</v>
       </c>
       <c r="AB15" s="15">
-        <v>10519</v>
+        <v>8760</v>
       </c>
       <c r="AC15" s="15">
-        <v>10502</v>
+        <v>4753</v>
       </c>
       <c r="AD15" s="15">
-        <v>8760</v>
+        <v>5308</v>
       </c>
       <c r="AE15" s="15">
-        <v>4753</v>
+        <v>12764</v>
       </c>
       <c r="AF15" s="15">
-        <v>5308</v>
+        <v>9835</v>
       </c>
       <c r="AG15" s="15">
-        <v>12764</v>
+        <v>1078</v>
       </c>
       <c r="AH15" s="15">
+        <v>6966</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>11727</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>11486</v>
+      </c>
+      <c r="AK15" s="15">
+        <v>12546</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>9561</v>
+      </c>
+      <c r="AM15" s="15">
+        <v>9345</v>
+      </c>
+      <c r="AN15" s="15">
+        <v>12478</v>
+      </c>
+      <c r="AO15" s="15">
+        <v>14261</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>14811</v>
+      </c>
+      <c r="AQ15" s="15">
+        <v>11745</v>
+      </c>
+      <c r="AR15" s="15">
+        <v>12981</v>
+      </c>
+      <c r="AS15" s="15">
+        <v>8362</v>
+      </c>
+      <c r="AT15" s="15">
+        <v>10894</v>
+      </c>
+      <c r="AU15" s="15">
+        <v>3066</v>
+      </c>
+      <c r="AV15" s="15">
+        <v>7511</v>
+      </c>
+      <c r="AW15" s="15">
         <v>9835</v>
       </c>
-      <c r="AI15" s="15">
-        <v>1078</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>6966</v>
-      </c>
-      <c r="AK15" s="15">
-        <v>11727</v>
-      </c>
-      <c r="AL15" s="15">
-        <v>11486</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>12546</v>
-      </c>
-      <c r="AN15" s="15">
-        <v>9561</v>
-      </c>
-      <c r="AO15" s="15">
-        <v>9345</v>
-      </c>
-      <c r="AP15" s="15">
-        <v>12478</v>
-      </c>
-      <c r="AQ15" s="15">
-        <v>14261</v>
-      </c>
-      <c r="AR15" s="15">
-        <v>12039</v>
-      </c>
-      <c r="AS15" s="15">
-        <v>11745</v>
-      </c>
-      <c r="AT15" s="15">
-        <v>12981</v>
-      </c>
-      <c r="AU15" s="15">
-        <v>-4766</v>
-      </c>
-      <c r="AV15" s="15">
-        <v>10894</v>
-      </c>
-      <c r="AW15" s="15">
-        <v>3066</v>
-      </c>
       <c r="AX15" s="15">
-        <v>7511</v>
+        <v>7435</v>
       </c>
       <c r="AY15" s="15">
-        <v>9835</v>
+        <v>10255</v>
       </c>
       <c r="AZ15" s="15">
-        <v>7435</v>
+        <v>14965</v>
       </c>
       <c r="BA15" s="15">
-        <v>10255</v>
+        <v>15322</v>
       </c>
       <c r="BB15" s="15">
-        <v>14965</v>
+        <v>15491</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2370,29 +2405,29 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
       </c>
       <c r="AT17" s="11">
-        <v>1059</v>
+        <v>315</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="AV17" s="11">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="AW17" s="11">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="11">
         <v>0</v>
@@ -2401,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="11">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
@@ -2529,38 +2564,38 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
+      <c r="AQ18" s="13">
+        <v>319</v>
       </c>
       <c r="AR18" s="13">
-        <v>469</v>
+        <v>2005</v>
       </c>
       <c r="AS18" s="13">
-        <v>319</v>
+        <v>6089</v>
       </c>
       <c r="AT18" s="13">
-        <v>2005</v>
+        <v>3343</v>
       </c>
       <c r="AU18" s="13">
-        <v>19217</v>
+        <v>10445</v>
       </c>
       <c r="AV18" s="13">
-        <v>3343</v>
+        <v>7166</v>
       </c>
       <c r="AW18" s="13">
-        <v>10445</v>
+        <v>4365</v>
       </c>
       <c r="AX18" s="13">
-        <v>7166</v>
+        <v>7145</v>
       </c>
       <c r="AY18" s="13">
-        <v>4365</v>
+        <v>4472</v>
       </c>
       <c r="AZ18" s="13">
-        <v>7145</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13">
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
         <v>0</v>
@@ -2628,68 +2663,68 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>6994</v>
+      </c>
+      <c r="X19" s="11">
+        <v>9225</v>
       </c>
       <c r="Y19" s="11">
-        <v>6994</v>
+        <v>4581</v>
       </c>
       <c r="Z19" s="11">
-        <v>9225</v>
+        <v>3646</v>
       </c>
       <c r="AA19" s="11">
-        <v>4581</v>
+        <v>6291</v>
       </c>
       <c r="AB19" s="11">
-        <v>3646</v>
+        <v>6057</v>
       </c>
       <c r="AC19" s="11">
-        <v>6291</v>
+        <v>9905</v>
       </c>
       <c r="AD19" s="11">
-        <v>6057</v>
+        <v>9869</v>
       </c>
       <c r="AE19" s="11">
-        <v>9905</v>
+        <v>3607</v>
       </c>
       <c r="AF19" s="11">
-        <v>9869</v>
+        <v>5463</v>
       </c>
       <c r="AG19" s="11">
-        <v>3607</v>
+        <v>13807</v>
       </c>
       <c r="AH19" s="11">
-        <v>5463</v>
+        <v>8486</v>
       </c>
       <c r="AI19" s="11">
-        <v>13807</v>
+        <v>3581</v>
       </c>
       <c r="AJ19" s="11">
-        <v>8486</v>
+        <v>3407</v>
       </c>
       <c r="AK19" s="11">
-        <v>3581</v>
+        <v>1850</v>
       </c>
       <c r="AL19" s="11">
-        <v>3407</v>
+        <v>2691</v>
       </c>
       <c r="AM19" s="11">
-        <v>1850</v>
+        <v>3681</v>
       </c>
       <c r="AN19" s="11">
-        <v>2691</v>
+        <v>1566</v>
       </c>
       <c r="AO19" s="11">
-        <v>3681</v>
+        <v>282</v>
       </c>
       <c r="AP19" s="11">
-        <v>1566</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>282</v>
+        <v>469</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>58</v>
@@ -2832,23 +2867,23 @@
       <c r="AK20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM20" s="13" t="s">
-        <v>58</v>
+      <c r="AL20" s="13">
+        <v>1571</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>1435</v>
       </c>
       <c r="AN20" s="13">
-        <v>1571</v>
+        <v>770</v>
       </c>
       <c r="AO20" s="13">
-        <v>1435</v>
+        <v>289</v>
       </c>
       <c r="AP20" s="13">
-        <v>770</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>289</v>
+        <v>22</v>
+      </c>
+      <c r="AQ20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR20" s="13" t="s">
         <v>58</v>
@@ -2945,97 +2980,97 @@
         <v>0</v>
       </c>
       <c r="W21" s="15">
-        <v>0</v>
+        <v>6994</v>
       </c>
       <c r="X21" s="15">
-        <v>0</v>
+        <v>9225</v>
       </c>
       <c r="Y21" s="15">
-        <v>6994</v>
+        <v>4581</v>
       </c>
       <c r="Z21" s="15">
-        <v>9225</v>
+        <v>3646</v>
       </c>
       <c r="AA21" s="15">
-        <v>4581</v>
+        <v>6291</v>
       </c>
       <c r="AB21" s="15">
-        <v>3646</v>
+        <v>6057</v>
       </c>
       <c r="AC21" s="15">
-        <v>6291</v>
+        <v>9905</v>
       </c>
       <c r="AD21" s="15">
-        <v>6057</v>
+        <v>9869</v>
       </c>
       <c r="AE21" s="15">
-        <v>9905</v>
+        <v>3607</v>
       </c>
       <c r="AF21" s="15">
-        <v>9869</v>
+        <v>5463</v>
       </c>
       <c r="AG21" s="15">
-        <v>3607</v>
+        <v>13807</v>
       </c>
       <c r="AH21" s="15">
-        <v>5463</v>
+        <v>8486</v>
       </c>
       <c r="AI21" s="15">
-        <v>13807</v>
+        <v>3581</v>
       </c>
       <c r="AJ21" s="15">
-        <v>8486</v>
+        <v>3407</v>
       </c>
       <c r="AK21" s="15">
-        <v>3581</v>
+        <v>1850</v>
       </c>
       <c r="AL21" s="15">
-        <v>3407</v>
+        <v>4262</v>
       </c>
       <c r="AM21" s="15">
-        <v>1850</v>
+        <v>5116</v>
       </c>
       <c r="AN21" s="15">
-        <v>4262</v>
+        <v>2336</v>
       </c>
       <c r="AO21" s="15">
-        <v>5116</v>
+        <v>571</v>
       </c>
       <c r="AP21" s="15">
-        <v>2336</v>
+        <v>491</v>
       </c>
       <c r="AQ21" s="15">
-        <v>571</v>
+        <v>319</v>
       </c>
       <c r="AR21" s="15">
-        <v>469</v>
+        <v>3064</v>
       </c>
       <c r="AS21" s="15">
-        <v>319</v>
+        <v>6089</v>
       </c>
       <c r="AT21" s="15">
-        <v>3064</v>
+        <v>3658</v>
       </c>
       <c r="AU21" s="15">
-        <v>19217</v>
+        <v>12606</v>
       </c>
       <c r="AV21" s="15">
-        <v>3658</v>
+        <v>7262</v>
       </c>
       <c r="AW21" s="15">
-        <v>12606</v>
+        <v>4365</v>
       </c>
       <c r="AX21" s="15">
-        <v>7262</v>
+        <v>7145</v>
       </c>
       <c r="AY21" s="15">
-        <v>4365</v>
+        <v>4472</v>
       </c>
       <c r="AZ21" s="15">
-        <v>7145</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="15">
-        <v>4472</v>
+        <v>193</v>
       </c>
       <c r="BB21" s="15">
         <v>0</v>
@@ -3158,11 +3193,11 @@
       <c r="V23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>58</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3316,100 +3351,100 @@
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <v>0</v>
+        <v>16395</v>
       </c>
       <c r="X24" s="19">
-        <v>0</v>
+        <v>15834</v>
       </c>
       <c r="Y24" s="19">
-        <v>16395</v>
+        <v>14615</v>
       </c>
       <c r="Z24" s="19">
-        <v>15834</v>
+        <v>14165</v>
       </c>
       <c r="AA24" s="19">
-        <v>14615</v>
+        <v>16793</v>
       </c>
       <c r="AB24" s="19">
-        <v>14165</v>
+        <v>14817</v>
       </c>
       <c r="AC24" s="19">
-        <v>16793</v>
+        <v>14658</v>
       </c>
       <c r="AD24" s="19">
-        <v>14817</v>
+        <v>15177</v>
       </c>
       <c r="AE24" s="19">
-        <v>14658</v>
+        <v>16371</v>
       </c>
       <c r="AF24" s="19">
-        <v>15177</v>
+        <v>15298</v>
       </c>
       <c r="AG24" s="19">
-        <v>16371</v>
+        <v>14885</v>
       </c>
       <c r="AH24" s="19">
-        <v>15298</v>
+        <v>15452</v>
       </c>
       <c r="AI24" s="19">
-        <v>14885</v>
+        <v>15308</v>
       </c>
       <c r="AJ24" s="19">
-        <v>15452</v>
+        <v>14893</v>
       </c>
       <c r="AK24" s="19">
-        <v>15308</v>
+        <v>14396</v>
       </c>
       <c r="AL24" s="19">
-        <v>14893</v>
+        <v>13823</v>
       </c>
       <c r="AM24" s="19">
-        <v>14396</v>
+        <v>14461</v>
       </c>
       <c r="AN24" s="19">
-        <v>13823</v>
+        <v>14814</v>
       </c>
       <c r="AO24" s="19">
-        <v>14461</v>
+        <v>14832</v>
       </c>
       <c r="AP24" s="19">
-        <v>14814</v>
+        <v>15302</v>
       </c>
       <c r="AQ24" s="19">
-        <v>14832</v>
+        <v>12064</v>
       </c>
       <c r="AR24" s="19">
-        <v>12508</v>
+        <v>16045</v>
       </c>
       <c r="AS24" s="19">
-        <v>12064</v>
+        <v>14451</v>
       </c>
       <c r="AT24" s="19">
-        <v>16045</v>
+        <v>14552</v>
       </c>
       <c r="AU24" s="19">
-        <v>14451</v>
+        <v>15672</v>
       </c>
       <c r="AV24" s="19">
-        <v>14552</v>
+        <v>14773</v>
       </c>
       <c r="AW24" s="19">
-        <v>15672</v>
+        <v>14200</v>
       </c>
       <c r="AX24" s="19">
-        <v>14773</v>
+        <v>14580</v>
       </c>
       <c r="AY24" s="19">
-        <v>14200</v>
+        <v>14727</v>
       </c>
       <c r="AZ24" s="19">
-        <v>14580</v>
+        <v>14965</v>
       </c>
       <c r="BA24" s="19">
-        <v>14727</v>
+        <v>15515</v>
       </c>
       <c r="BB24" s="19">
-        <v>14965</v>
+        <v>15491</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
@@ -3908,101 +3943,101 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>1385</v>
+      </c>
+      <c r="X31" s="11">
+        <v>1281</v>
       </c>
       <c r="Y31" s="11">
-        <v>1385</v>
+        <v>1249</v>
       </c>
       <c r="Z31" s="11">
-        <v>1281</v>
+        <v>1069</v>
       </c>
       <c r="AA31" s="11">
-        <v>1249</v>
+        <v>1038</v>
       </c>
       <c r="AB31" s="11">
-        <v>1069</v>
+        <v>549</v>
       </c>
       <c r="AC31" s="11">
-        <v>1038</v>
+        <v>99</v>
       </c>
       <c r="AD31" s="11">
-        <v>549</v>
+        <v>733</v>
       </c>
       <c r="AE31" s="11">
-        <v>99</v>
+        <v>783</v>
       </c>
       <c r="AF31" s="11">
-        <v>733</v>
+        <v>196</v>
       </c>
       <c r="AG31" s="11">
-        <v>783</v>
+        <v>632</v>
       </c>
       <c r="AH31" s="11">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="AI31" s="11">
-        <v>632</v>
+        <v>262</v>
       </c>
       <c r="AJ31" s="11">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="AK31" s="11">
-        <v>262</v>
+        <v>875</v>
       </c>
       <c r="AL31" s="11">
-        <v>370</v>
+        <v>758</v>
       </c>
       <c r="AM31" s="11">
-        <v>875</v>
+        <v>699</v>
       </c>
       <c r="AN31" s="11">
-        <v>758</v>
+        <v>1313</v>
       </c>
       <c r="AO31" s="11">
-        <v>699</v>
+        <v>941</v>
       </c>
       <c r="AP31" s="11">
-        <v>1313</v>
+        <v>320</v>
       </c>
       <c r="AQ31" s="11">
-        <v>941</v>
+        <v>271</v>
       </c>
       <c r="AR31" s="11">
-        <v>320</v>
+        <v>173</v>
       </c>
       <c r="AS31" s="11">
-        <v>271</v>
+        <v>641</v>
       </c>
       <c r="AT31" s="11">
-        <v>173</v>
+        <v>1679</v>
       </c>
       <c r="AU31" s="11">
-        <v>641</v>
+        <v>2503</v>
       </c>
       <c r="AV31" s="11">
-        <v>1679</v>
+        <v>1749</v>
       </c>
       <c r="AW31" s="11">
-        <v>2503</v>
+        <v>1880</v>
       </c>
       <c r="AX31" s="11">
-        <v>1749</v>
+        <v>1311</v>
       </c>
       <c r="AY31" s="11">
-        <v>1880</v>
+        <v>1514</v>
       </c>
       <c r="AZ31" s="11">
-        <v>1311</v>
+        <v>371</v>
       </c>
       <c r="BA31" s="11">
-        <v>1514</v>
+        <v>1093</v>
       </c>
       <c r="BB31" s="11">
-        <v>371</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
@@ -4067,101 +4102,101 @@
       <c r="V32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>58</v>
+      <c r="W32" s="13">
+        <v>12498</v>
+      </c>
+      <c r="X32" s="13">
+        <v>6096</v>
       </c>
       <c r="Y32" s="13">
-        <v>12498</v>
+        <v>7711</v>
       </c>
       <c r="Z32" s="13">
-        <v>6096</v>
+        <v>8231</v>
       </c>
       <c r="AA32" s="13">
-        <v>7711</v>
+        <v>2333</v>
       </c>
       <c r="AB32" s="13">
-        <v>8231</v>
+        <v>4789</v>
       </c>
       <c r="AC32" s="13">
-        <v>2333</v>
+        <v>6678</v>
       </c>
       <c r="AD32" s="13">
-        <v>4789</v>
+        <v>6364</v>
       </c>
       <c r="AE32" s="13">
-        <v>6678</v>
+        <v>6668</v>
       </c>
       <c r="AF32" s="13">
+        <v>3162</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>4598</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>9371</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>9399</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>8303</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>10291</v>
+      </c>
+      <c r="AL32" s="13">
         <v>6364</v>
       </c>
-      <c r="AG32" s="13">
-        <v>6668</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>3162</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>4598</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>9371</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>9399</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>8303</v>
-      </c>
       <c r="AM32" s="13">
-        <v>10291</v>
+        <v>10718</v>
       </c>
       <c r="AN32" s="13">
-        <v>6364</v>
+        <v>11222</v>
       </c>
       <c r="AO32" s="13">
-        <v>10718</v>
+        <v>11771</v>
       </c>
       <c r="AP32" s="13">
-        <v>11222</v>
+        <v>6449</v>
       </c>
       <c r="AQ32" s="13">
-        <v>11771</v>
+        <v>12590</v>
       </c>
       <c r="AR32" s="13">
-        <v>6449</v>
+        <v>3939</v>
       </c>
       <c r="AS32" s="13">
-        <v>12590</v>
+        <v>6706</v>
       </c>
       <c r="AT32" s="13">
-        <v>3939</v>
+        <v>8101</v>
       </c>
       <c r="AU32" s="13">
-        <v>6706</v>
+        <v>7129</v>
       </c>
       <c r="AV32" s="13">
-        <v>8101</v>
+        <v>7742</v>
       </c>
       <c r="AW32" s="13">
-        <v>7129</v>
+        <v>7184</v>
       </c>
       <c r="AX32" s="13">
-        <v>7742</v>
+        <v>7980</v>
       </c>
       <c r="AY32" s="13">
-        <v>7184</v>
+        <v>11218</v>
       </c>
       <c r="AZ32" s="13">
-        <v>7980</v>
+        <v>10249</v>
       </c>
       <c r="BA32" s="13">
-        <v>11218</v>
+        <v>9772</v>
       </c>
       <c r="BB32" s="13">
-        <v>10249</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.25">
@@ -4226,101 +4261,101 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>3048</v>
+      </c>
+      <c r="X33" s="11">
+        <v>3042</v>
       </c>
       <c r="Y33" s="11">
-        <v>3048</v>
+        <v>843</v>
       </c>
       <c r="Z33" s="11">
-        <v>3042</v>
+        <v>123</v>
       </c>
       <c r="AA33" s="11">
-        <v>843</v>
+        <v>1493</v>
       </c>
       <c r="AB33" s="11">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="11">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="11">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE33" s="11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AF33" s="11">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AG33" s="11">
-        <v>275</v>
+        <v>469</v>
       </c>
       <c r="AH33" s="11">
-        <v>20</v>
+        <v>605</v>
       </c>
       <c r="AI33" s="11">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="AJ33" s="11">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="11">
-        <v>613</v>
+        <v>160</v>
       </c>
       <c r="AL33" s="11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM33" s="11">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AP33" s="11">
         <v>0</v>
       </c>
       <c r="AQ33" s="11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="11">
         <v>0</v>
       </c>
       <c r="AS33" s="11">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AT33" s="11">
         <v>0</v>
       </c>
       <c r="AU33" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW33" s="11">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="AX33" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="11">
-        <v>959</v>
+        <v>75</v>
       </c>
       <c r="AZ33" s="11">
         <v>0</v>
       </c>
       <c r="BA33" s="11">
-        <v>75</v>
+        <v>635</v>
       </c>
       <c r="BB33" s="11">
-        <v>0</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4385,11 +4420,11 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
       </c>
       <c r="Y34" s="13">
         <v>0</v>
@@ -4397,11 +4432,11 @@
       <c r="Z34" s="13">
         <v>0</v>
       </c>
-      <c r="AA34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="13">
-        <v>0</v>
+      <c r="AA34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC34" s="13" t="s">
         <v>58</v>
@@ -4543,100 +4578,100 @@
         <v>0</v>
       </c>
       <c r="W35" s="15">
-        <v>0</v>
+        <v>16931</v>
       </c>
       <c r="X35" s="15">
-        <v>0</v>
+        <v>10419</v>
       </c>
       <c r="Y35" s="15">
-        <v>16931</v>
+        <v>9803</v>
       </c>
       <c r="Z35" s="15">
-        <v>10419</v>
+        <v>9423</v>
       </c>
       <c r="AA35" s="15">
-        <v>9803</v>
+        <v>4864</v>
       </c>
       <c r="AB35" s="15">
-        <v>9423</v>
+        <v>5338</v>
       </c>
       <c r="AC35" s="15">
-        <v>4864</v>
+        <v>6777</v>
       </c>
       <c r="AD35" s="15">
-        <v>5338</v>
+        <v>7217</v>
       </c>
       <c r="AE35" s="15">
-        <v>6777</v>
+        <v>7726</v>
       </c>
       <c r="AF35" s="15">
-        <v>7217</v>
+        <v>3378</v>
       </c>
       <c r="AG35" s="15">
-        <v>7726</v>
+        <v>5699</v>
       </c>
       <c r="AH35" s="15">
-        <v>3378</v>
+        <v>10257</v>
       </c>
       <c r="AI35" s="15">
-        <v>5699</v>
+        <v>10274</v>
       </c>
       <c r="AJ35" s="15">
-        <v>10257</v>
+        <v>8673</v>
       </c>
       <c r="AK35" s="15">
-        <v>10274</v>
+        <v>11326</v>
       </c>
       <c r="AL35" s="15">
-        <v>8673</v>
+        <v>7162</v>
       </c>
       <c r="AM35" s="15">
-        <v>11326</v>
+        <v>11417</v>
       </c>
       <c r="AN35" s="15">
-        <v>7162</v>
+        <v>12535</v>
       </c>
       <c r="AO35" s="15">
-        <v>11417</v>
+        <v>12751</v>
       </c>
       <c r="AP35" s="15">
-        <v>12535</v>
+        <v>6769</v>
       </c>
       <c r="AQ35" s="15">
-        <v>12751</v>
+        <v>12861</v>
       </c>
       <c r="AR35" s="15">
-        <v>6769</v>
+        <v>4112</v>
       </c>
       <c r="AS35" s="15">
-        <v>12861</v>
+        <v>7396</v>
       </c>
       <c r="AT35" s="15">
-        <v>4112</v>
+        <v>9780</v>
       </c>
       <c r="AU35" s="15">
-        <v>7396</v>
+        <v>9632</v>
       </c>
       <c r="AV35" s="15">
-        <v>9780</v>
+        <v>9541</v>
       </c>
       <c r="AW35" s="15">
-        <v>9632</v>
+        <v>10023</v>
       </c>
       <c r="AX35" s="15">
-        <v>9541</v>
+        <v>9291</v>
       </c>
       <c r="AY35" s="15">
-        <v>10023</v>
+        <v>12807</v>
       </c>
       <c r="AZ35" s="15">
-        <v>9291</v>
+        <v>10620</v>
       </c>
       <c r="BA35" s="15">
-        <v>12807</v>
+        <v>11500</v>
       </c>
       <c r="BB35" s="15">
-        <v>10620</v>
+        <v>12936</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4818,29 +4853,29 @@
       <c r="AP37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
+      <c r="AQ37" s="11">
+        <v>2772</v>
       </c>
       <c r="AR37" s="11">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="AS37" s="11">
-        <v>2772</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="11">
-        <v>1059</v>
+        <v>315</v>
       </c>
       <c r="AU37" s="11">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="AV37" s="11">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="AW37" s="11">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="11">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="11">
         <v>0</v>
@@ -4849,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="11">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="BB37" s="11">
         <v>0</v>
@@ -4977,38 +5012,38 @@
       <c r="AP38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>58</v>
+      <c r="AQ38" s="13">
+        <v>319</v>
       </c>
       <c r="AR38" s="13">
-        <v>469</v>
+        <v>2005</v>
       </c>
       <c r="AS38" s="13">
-        <v>319</v>
+        <v>6089</v>
       </c>
       <c r="AT38" s="13">
-        <v>2005</v>
+        <v>16471</v>
       </c>
       <c r="AU38" s="13">
-        <v>6089</v>
+        <v>10445</v>
       </c>
       <c r="AV38" s="13">
-        <v>16471</v>
+        <v>7166</v>
       </c>
       <c r="AW38" s="13">
-        <v>10445</v>
+        <v>4365</v>
       </c>
       <c r="AX38" s="13">
-        <v>7166</v>
+        <v>7145</v>
       </c>
       <c r="AY38" s="13">
-        <v>4365</v>
+        <v>4472</v>
       </c>
       <c r="AZ38" s="13">
-        <v>7145</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="13">
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="13">
         <v>0</v>
@@ -5076,68 +5111,68 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>6994</v>
+      </c>
+      <c r="X39" s="11">
+        <v>9225</v>
       </c>
       <c r="Y39" s="11">
-        <v>6994</v>
+        <v>4581</v>
       </c>
       <c r="Z39" s="11">
-        <v>9225</v>
+        <v>3646</v>
       </c>
       <c r="AA39" s="11">
-        <v>4581</v>
+        <v>6291</v>
       </c>
       <c r="AB39" s="11">
-        <v>3646</v>
+        <v>6057</v>
       </c>
       <c r="AC39" s="11">
-        <v>6291</v>
+        <v>9905</v>
       </c>
       <c r="AD39" s="11">
-        <v>6057</v>
+        <v>9869</v>
       </c>
       <c r="AE39" s="11">
-        <v>9905</v>
+        <v>3607</v>
       </c>
       <c r="AF39" s="11">
-        <v>9869</v>
+        <v>5463</v>
       </c>
       <c r="AG39" s="11">
-        <v>3607</v>
+        <v>13807</v>
       </c>
       <c r="AH39" s="11">
-        <v>5463</v>
+        <v>8486</v>
       </c>
       <c r="AI39" s="11">
-        <v>13807</v>
+        <v>3581</v>
       </c>
       <c r="AJ39" s="11">
-        <v>8486</v>
+        <v>3407</v>
       </c>
       <c r="AK39" s="11">
-        <v>3581</v>
+        <v>1850</v>
       </c>
       <c r="AL39" s="11">
-        <v>3407</v>
+        <v>2691</v>
       </c>
       <c r="AM39" s="11">
-        <v>1850</v>
+        <v>3681</v>
       </c>
       <c r="AN39" s="11">
-        <v>2691</v>
+        <v>1566</v>
       </c>
       <c r="AO39" s="11">
-        <v>3681</v>
+        <v>282</v>
       </c>
       <c r="AP39" s="11">
-        <v>1566</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>282</v>
+        <v>469</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR39" s="11" t="s">
         <v>58</v>
@@ -5280,23 +5315,23 @@
       <c r="AK40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM40" s="13" t="s">
-        <v>58</v>
+      <c r="AL40" s="13">
+        <v>1571</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>1435</v>
       </c>
       <c r="AN40" s="13">
-        <v>1571</v>
+        <v>770</v>
       </c>
       <c r="AO40" s="13">
-        <v>1435</v>
+        <v>289</v>
       </c>
       <c r="AP40" s="13">
-        <v>770</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>289</v>
+        <v>22</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR40" s="13" t="s">
         <v>58</v>
@@ -5393,97 +5428,97 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>6994</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>9225</v>
       </c>
       <c r="Y41" s="15">
-        <v>6994</v>
+        <v>4581</v>
       </c>
       <c r="Z41" s="15">
-        <v>9225</v>
+        <v>3646</v>
       </c>
       <c r="AA41" s="15">
-        <v>4581</v>
+        <v>6291</v>
       </c>
       <c r="AB41" s="15">
-        <v>3646</v>
+        <v>6057</v>
       </c>
       <c r="AC41" s="15">
-        <v>6291</v>
+        <v>9905</v>
       </c>
       <c r="AD41" s="15">
-        <v>6057</v>
+        <v>9869</v>
       </c>
       <c r="AE41" s="15">
-        <v>9905</v>
+        <v>3607</v>
       </c>
       <c r="AF41" s="15">
-        <v>9869</v>
+        <v>5463</v>
       </c>
       <c r="AG41" s="15">
-        <v>3607</v>
+        <v>13807</v>
       </c>
       <c r="AH41" s="15">
-        <v>5463</v>
+        <v>8486</v>
       </c>
       <c r="AI41" s="15">
-        <v>13807</v>
+        <v>3581</v>
       </c>
       <c r="AJ41" s="15">
-        <v>8486</v>
+        <v>3407</v>
       </c>
       <c r="AK41" s="15">
-        <v>3581</v>
+        <v>1850</v>
       </c>
       <c r="AL41" s="15">
-        <v>3407</v>
+        <v>4262</v>
       </c>
       <c r="AM41" s="15">
-        <v>1850</v>
+        <v>5116</v>
       </c>
       <c r="AN41" s="15">
-        <v>4262</v>
+        <v>2336</v>
       </c>
       <c r="AO41" s="15">
-        <v>5116</v>
+        <v>571</v>
       </c>
       <c r="AP41" s="15">
-        <v>2336</v>
+        <v>491</v>
       </c>
       <c r="AQ41" s="15">
-        <v>571</v>
+        <v>3091</v>
       </c>
       <c r="AR41" s="15">
-        <v>469</v>
+        <v>3064</v>
       </c>
       <c r="AS41" s="15">
-        <v>3091</v>
+        <v>6089</v>
       </c>
       <c r="AT41" s="15">
-        <v>3064</v>
+        <v>16786</v>
       </c>
       <c r="AU41" s="15">
-        <v>6089</v>
+        <v>12606</v>
       </c>
       <c r="AV41" s="15">
-        <v>16786</v>
+        <v>7262</v>
       </c>
       <c r="AW41" s="15">
-        <v>12606</v>
+        <v>4365</v>
       </c>
       <c r="AX41" s="15">
-        <v>7262</v>
+        <v>7145</v>
       </c>
       <c r="AY41" s="15">
-        <v>4365</v>
+        <v>4472</v>
       </c>
       <c r="AZ41" s="15">
-        <v>7145</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="15">
-        <v>4472</v>
+        <v>193</v>
       </c>
       <c r="BB41" s="15">
         <v>0</v>
@@ -5606,11 +5641,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -5820,11 +5855,11 @@
       <c r="V45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>58</v>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
@@ -5978,100 +6013,100 @@
         <v>0</v>
       </c>
       <c r="W46" s="19">
-        <v>0</v>
+        <v>23925</v>
       </c>
       <c r="X46" s="19">
-        <v>0</v>
+        <v>19644</v>
       </c>
       <c r="Y46" s="19">
-        <v>23925</v>
+        <v>14384</v>
       </c>
       <c r="Z46" s="19">
-        <v>19644</v>
+        <v>13069</v>
       </c>
       <c r="AA46" s="19">
-        <v>14384</v>
+        <v>11155</v>
       </c>
       <c r="AB46" s="19">
-        <v>13069</v>
+        <v>11395</v>
       </c>
       <c r="AC46" s="19">
-        <v>11155</v>
+        <v>16682</v>
       </c>
       <c r="AD46" s="19">
-        <v>11395</v>
+        <v>17086</v>
       </c>
       <c r="AE46" s="19">
-        <v>16682</v>
+        <v>11333</v>
       </c>
       <c r="AF46" s="19">
-        <v>17086</v>
+        <v>8841</v>
       </c>
       <c r="AG46" s="19">
-        <v>11333</v>
+        <v>19506</v>
       </c>
       <c r="AH46" s="19">
-        <v>8841</v>
+        <v>18743</v>
       </c>
       <c r="AI46" s="19">
-        <v>19506</v>
+        <v>13855</v>
       </c>
       <c r="AJ46" s="19">
-        <v>18743</v>
+        <v>12080</v>
       </c>
       <c r="AK46" s="19">
-        <v>13855</v>
+        <v>13176</v>
       </c>
       <c r="AL46" s="19">
-        <v>12080</v>
+        <v>11424</v>
       </c>
       <c r="AM46" s="19">
-        <v>13176</v>
+        <v>16533</v>
       </c>
       <c r="AN46" s="19">
-        <v>11424</v>
+        <v>14871</v>
       </c>
       <c r="AO46" s="19">
-        <v>16533</v>
+        <v>13322</v>
       </c>
       <c r="AP46" s="19">
-        <v>14871</v>
+        <v>7260</v>
       </c>
       <c r="AQ46" s="19">
-        <v>13322</v>
+        <v>15952</v>
       </c>
       <c r="AR46" s="19">
-        <v>7238</v>
+        <v>7176</v>
       </c>
       <c r="AS46" s="19">
-        <v>15952</v>
+        <v>13485</v>
       </c>
       <c r="AT46" s="19">
-        <v>7176</v>
+        <v>26566</v>
       </c>
       <c r="AU46" s="19">
-        <v>13485</v>
+        <v>22238</v>
       </c>
       <c r="AV46" s="19">
-        <v>26566</v>
+        <v>16803</v>
       </c>
       <c r="AW46" s="19">
-        <v>22238</v>
+        <v>14388</v>
       </c>
       <c r="AX46" s="19">
-        <v>16803</v>
+        <v>16436</v>
       </c>
       <c r="AY46" s="19">
-        <v>14388</v>
+        <v>17279</v>
       </c>
       <c r="AZ46" s="19">
-        <v>16436</v>
+        <v>10620</v>
       </c>
       <c r="BA46" s="19">
-        <v>17279</v>
+        <v>11693</v>
       </c>
       <c r="BB46" s="19">
-        <v>10620</v>
+        <v>12936</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
@@ -6570,101 +6605,101 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>423171</v>
+      </c>
+      <c r="X53" s="11">
+        <v>485814</v>
       </c>
       <c r="Y53" s="11">
-        <v>423171</v>
+        <v>536937</v>
       </c>
       <c r="Z53" s="11">
-        <v>485814</v>
+        <v>459009</v>
       </c>
       <c r="AA53" s="11">
-        <v>536937</v>
+        <v>495956</v>
       </c>
       <c r="AB53" s="11">
-        <v>459009</v>
+        <v>245150</v>
       </c>
       <c r="AC53" s="11">
-        <v>495956</v>
+        <v>53935</v>
       </c>
       <c r="AD53" s="11">
-        <v>245150</v>
+        <v>379731</v>
       </c>
       <c r="AE53" s="11">
-        <v>53935</v>
+        <v>419370</v>
       </c>
       <c r="AF53" s="11">
-        <v>379731</v>
+        <v>110655</v>
       </c>
       <c r="AG53" s="11">
-        <v>419370</v>
+        <v>357055</v>
       </c>
       <c r="AH53" s="11">
-        <v>110655</v>
+        <v>155628</v>
       </c>
       <c r="AI53" s="11">
-        <v>357055</v>
+        <v>145997</v>
       </c>
       <c r="AJ53" s="11">
-        <v>155628</v>
+        <v>210180</v>
       </c>
       <c r="AK53" s="11">
-        <v>145997</v>
+        <v>583414</v>
       </c>
       <c r="AL53" s="11">
-        <v>210180</v>
+        <v>603050</v>
       </c>
       <c r="AM53" s="11">
-        <v>583414</v>
+        <v>517985</v>
       </c>
       <c r="AN53" s="11">
-        <v>603050</v>
+        <v>923190</v>
       </c>
       <c r="AO53" s="11">
-        <v>517985</v>
+        <v>746062</v>
       </c>
       <c r="AP53" s="11">
-        <v>923190</v>
+        <v>266299</v>
       </c>
       <c r="AQ53" s="11">
-        <v>746062</v>
+        <v>246954</v>
       </c>
       <c r="AR53" s="11">
-        <v>266299</v>
+        <v>164465</v>
       </c>
       <c r="AS53" s="11">
-        <v>246954</v>
+        <v>543183</v>
       </c>
       <c r="AT53" s="11">
-        <v>164465</v>
+        <v>1333817</v>
       </c>
       <c r="AU53" s="11">
-        <v>543183</v>
+        <v>1927037</v>
       </c>
       <c r="AV53" s="11">
-        <v>1333817</v>
+        <v>1335240</v>
       </c>
       <c r="AW53" s="11">
-        <v>1927037</v>
+        <v>1432206</v>
       </c>
       <c r="AX53" s="11">
-        <v>1335240</v>
+        <v>969138</v>
       </c>
       <c r="AY53" s="11">
-        <v>1432206</v>
+        <v>1147077</v>
       </c>
       <c r="AZ53" s="11">
-        <v>969138</v>
+        <v>322401</v>
       </c>
       <c r="BA53" s="11">
-        <v>1147077</v>
+        <v>1128161</v>
       </c>
       <c r="BB53" s="11">
-        <v>322401</v>
+        <v>1544616</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
@@ -6729,101 +6764,101 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>3537116</v>
+      </c>
+      <c r="X54" s="13">
+        <v>2235131</v>
       </c>
       <c r="Y54" s="13">
-        <v>3537116</v>
+        <v>3066349</v>
       </c>
       <c r="Z54" s="13">
-        <v>2235131</v>
+        <v>3529068</v>
       </c>
       <c r="AA54" s="13">
-        <v>3066349</v>
+        <v>1112869</v>
       </c>
       <c r="AB54" s="13">
-        <v>3529068</v>
+        <v>2462005</v>
       </c>
       <c r="AC54" s="13">
-        <v>1112869</v>
+        <v>3439605</v>
       </c>
       <c r="AD54" s="13">
-        <v>2462005</v>
+        <v>3148561</v>
       </c>
       <c r="AE54" s="13">
-        <v>3439605</v>
+        <v>3476448</v>
       </c>
       <c r="AF54" s="13">
-        <v>3148561</v>
+        <v>1666391</v>
       </c>
       <c r="AG54" s="13">
-        <v>3476448</v>
+        <v>2472254</v>
       </c>
       <c r="AH54" s="13">
-        <v>1666391</v>
+        <v>4880627</v>
       </c>
       <c r="AI54" s="13">
-        <v>2472254</v>
+        <v>5048745</v>
       </c>
       <c r="AJ54" s="13">
-        <v>4880627</v>
+        <v>4764084</v>
       </c>
       <c r="AK54" s="13">
-        <v>5048745</v>
+        <v>6608093</v>
       </c>
       <c r="AL54" s="13">
-        <v>4764084</v>
+        <v>4487490</v>
       </c>
       <c r="AM54" s="13">
-        <v>6608093</v>
+        <v>7360198</v>
       </c>
       <c r="AN54" s="13">
-        <v>4487490</v>
+        <v>7140491</v>
       </c>
       <c r="AO54" s="13">
-        <v>7360198</v>
+        <v>7906518</v>
       </c>
       <c r="AP54" s="13">
-        <v>7140491</v>
+        <v>4570944</v>
       </c>
       <c r="AQ54" s="13">
-        <v>7906518</v>
+        <v>10068257</v>
       </c>
       <c r="AR54" s="13">
-        <v>4570944</v>
+        <v>3074703</v>
       </c>
       <c r="AS54" s="13">
-        <v>10068257</v>
+        <v>5404491</v>
       </c>
       <c r="AT54" s="13">
-        <v>3074703</v>
+        <v>5904492</v>
       </c>
       <c r="AU54" s="13">
-        <v>5404491</v>
+        <v>4969166</v>
       </c>
       <c r="AV54" s="13">
-        <v>5904492</v>
+        <v>5487862</v>
       </c>
       <c r="AW54" s="13">
-        <v>4969166</v>
+        <v>5219786</v>
       </c>
       <c r="AX54" s="13">
-        <v>5487862</v>
+        <v>5448571</v>
       </c>
       <c r="AY54" s="13">
-        <v>5219786</v>
+        <v>7951592</v>
       </c>
       <c r="AZ54" s="13">
-        <v>5448571</v>
+        <v>8189159</v>
       </c>
       <c r="BA54" s="13">
-        <v>7951592</v>
+        <v>9054641</v>
       </c>
       <c r="BB54" s="13">
-        <v>8189159</v>
+        <v>10322867</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
@@ -6888,101 +6923,101 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>1053635</v>
+      </c>
+      <c r="X55" s="11">
+        <v>1362341</v>
       </c>
       <c r="Y55" s="11">
-        <v>1053635</v>
+        <v>316295</v>
       </c>
       <c r="Z55" s="11">
-        <v>1362341</v>
+        <v>55800</v>
       </c>
       <c r="AA55" s="11">
-        <v>316295</v>
+        <v>719403</v>
       </c>
       <c r="AB55" s="11">
-        <v>55800</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="11">
-        <v>719403</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="11">
-        <v>0</v>
+        <v>60615</v>
       </c>
       <c r="AE55" s="11">
-        <v>0</v>
+        <v>149152</v>
       </c>
       <c r="AF55" s="11">
-        <v>60615</v>
+        <v>12213</v>
       </c>
       <c r="AG55" s="11">
-        <v>149152</v>
+        <v>286166</v>
       </c>
       <c r="AH55" s="11">
-        <v>12213</v>
+        <v>346407</v>
       </c>
       <c r="AI55" s="11">
-        <v>286166</v>
+        <v>358779</v>
       </c>
       <c r="AJ55" s="11">
-        <v>346407</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="11">
-        <v>358779</v>
+        <v>98938</v>
       </c>
       <c r="AL55" s="11">
-        <v>0</v>
+        <v>33898</v>
       </c>
       <c r="AM55" s="11">
-        <v>98938</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="11">
-        <v>33898</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="11">
-        <v>0</v>
+        <v>36142</v>
       </c>
       <c r="AP55" s="11">
         <v>0</v>
       </c>
       <c r="AQ55" s="11">
-        <v>36142</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="11">
         <v>0</v>
       </c>
       <c r="AS55" s="11">
-        <v>0</v>
+        <v>55591</v>
       </c>
       <c r="AT55" s="11">
         <v>0</v>
       </c>
       <c r="AU55" s="11">
-        <v>55591</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="11">
-        <v>0</v>
+        <v>43547</v>
       </c>
       <c r="AW55" s="11">
-        <v>0</v>
+        <v>768104</v>
       </c>
       <c r="AX55" s="11">
-        <v>43547</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="11">
-        <v>768104</v>
+        <v>59278</v>
       </c>
       <c r="AZ55" s="11">
         <v>0</v>
       </c>
       <c r="BA55" s="11">
-        <v>59278</v>
+        <v>539705</v>
       </c>
       <c r="BB55" s="11">
-        <v>0</v>
+        <v>927160</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.25">
@@ -7047,11 +7082,11 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>0</v>
+      </c>
+      <c r="X56" s="13">
+        <v>0</v>
       </c>
       <c r="Y56" s="13">
         <v>0</v>
@@ -7059,11 +7094,11 @@
       <c r="Z56" s="13">
         <v>0</v>
       </c>
-      <c r="AA56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="13">
-        <v>0</v>
+      <c r="AA56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC56" s="13" t="s">
         <v>58</v>
@@ -7205,100 +7240,100 @@
         <v>0</v>
       </c>
       <c r="W57" s="15">
-        <v>0</v>
+        <v>5013922</v>
       </c>
       <c r="X57" s="15">
-        <v>0</v>
+        <v>4083286</v>
       </c>
       <c r="Y57" s="15">
-        <v>5013922</v>
+        <v>3919581</v>
       </c>
       <c r="Z57" s="15">
-        <v>4083286</v>
+        <v>4043877</v>
       </c>
       <c r="AA57" s="15">
-        <v>3919581</v>
+        <v>2328228</v>
       </c>
       <c r="AB57" s="15">
-        <v>4043877</v>
+        <v>2707155</v>
       </c>
       <c r="AC57" s="15">
-        <v>2328228</v>
+        <v>3493540</v>
       </c>
       <c r="AD57" s="15">
-        <v>2707155</v>
+        <v>3588907</v>
       </c>
       <c r="AE57" s="15">
-        <v>3493540</v>
+        <v>4044970</v>
       </c>
       <c r="AF57" s="15">
-        <v>3588907</v>
+        <v>1789259</v>
       </c>
       <c r="AG57" s="15">
-        <v>4044970</v>
+        <v>3115475</v>
       </c>
       <c r="AH57" s="15">
-        <v>1789259</v>
+        <v>5382662</v>
       </c>
       <c r="AI57" s="15">
-        <v>3115475</v>
+        <v>5553521</v>
       </c>
       <c r="AJ57" s="15">
-        <v>5382662</v>
+        <v>4974264</v>
       </c>
       <c r="AK57" s="15">
-        <v>5553521</v>
+        <v>7290445</v>
       </c>
       <c r="AL57" s="15">
-        <v>4974264</v>
+        <v>5124438</v>
       </c>
       <c r="AM57" s="15">
-        <v>7290445</v>
+        <v>7878183</v>
       </c>
       <c r="AN57" s="15">
-        <v>5124438</v>
+        <v>8063681</v>
       </c>
       <c r="AO57" s="15">
-        <v>7878183</v>
+        <v>8688722</v>
       </c>
       <c r="AP57" s="15">
-        <v>8063681</v>
+        <v>4837243</v>
       </c>
       <c r="AQ57" s="15">
-        <v>8688722</v>
+        <v>10315211</v>
       </c>
       <c r="AR57" s="15">
-        <v>4837243</v>
+        <v>3239168</v>
       </c>
       <c r="AS57" s="15">
-        <v>10315211</v>
+        <v>6003265</v>
       </c>
       <c r="AT57" s="15">
-        <v>3239168</v>
+        <v>7238309</v>
       </c>
       <c r="AU57" s="15">
-        <v>6003265</v>
+        <v>6896203</v>
       </c>
       <c r="AV57" s="15">
-        <v>7238309</v>
+        <v>6866649</v>
       </c>
       <c r="AW57" s="15">
-        <v>6896203</v>
+        <v>7420096</v>
       </c>
       <c r="AX57" s="15">
-        <v>6866649</v>
+        <v>6417709</v>
       </c>
       <c r="AY57" s="15">
-        <v>7420096</v>
+        <v>9157947</v>
       </c>
       <c r="AZ57" s="15">
-        <v>6417709</v>
+        <v>8511560</v>
       </c>
       <c r="BA57" s="15">
-        <v>9157947</v>
+        <v>10722507</v>
       </c>
       <c r="BB57" s="15">
-        <v>8511560</v>
+        <v>12794643</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
@@ -7480,29 +7515,29 @@
       <c r="AP59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ59" s="11" t="s">
-        <v>58</v>
+      <c r="AQ59" s="11">
+        <v>2557326</v>
       </c>
       <c r="AR59" s="11">
-        <v>0</v>
+        <v>980959</v>
       </c>
       <c r="AS59" s="11">
-        <v>2557326</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="11">
-        <v>980959</v>
+        <v>264719</v>
       </c>
       <c r="AU59" s="11">
-        <v>51218</v>
+        <v>1810478</v>
       </c>
       <c r="AV59" s="11">
-        <v>264719</v>
+        <v>79552</v>
       </c>
       <c r="AW59" s="11">
-        <v>1810478</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="11">
-        <v>79552</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="11">
         <v>0</v>
@@ -7511,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="11">
-        <v>0</v>
+        <v>159842</v>
       </c>
       <c r="BB59" s="11">
         <v>0</v>
@@ -7639,38 +7674,38 @@
       <c r="AP60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ60" s="13" t="s">
-        <v>58</v>
+      <c r="AQ60" s="13">
+        <v>272822</v>
       </c>
       <c r="AR60" s="13">
-        <v>385615</v>
+        <v>1614211</v>
       </c>
       <c r="AS60" s="13">
-        <v>272822</v>
+        <v>4712599</v>
       </c>
       <c r="AT60" s="13">
-        <v>1611510</v>
+        <v>12260407</v>
       </c>
       <c r="AU60" s="13">
-        <v>4730868</v>
+        <v>7991197</v>
       </c>
       <c r="AV60" s="13">
-        <v>12167126</v>
+        <v>5319863</v>
       </c>
       <c r="AW60" s="13">
-        <v>7977785</v>
+        <v>3489335</v>
       </c>
       <c r="AX60" s="13">
-        <v>5319863</v>
+        <v>5660926</v>
       </c>
       <c r="AY60" s="13">
-        <v>3489335</v>
+        <v>3461017</v>
       </c>
       <c r="AZ60" s="13">
-        <v>5660926</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>3461017</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="13">
         <v>0</v>
@@ -7738,68 +7773,68 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>1980607</v>
+      </c>
+      <c r="X61" s="11">
+        <v>3090584</v>
       </c>
       <c r="Y61" s="11">
-        <v>1980607</v>
+        <v>1793329</v>
       </c>
       <c r="Z61" s="11">
-        <v>3090584</v>
+        <v>1724710</v>
       </c>
       <c r="AA61" s="11">
-        <v>1793329</v>
+        <v>2954005</v>
       </c>
       <c r="AB61" s="11">
-        <v>1724710</v>
+        <v>3119135</v>
       </c>
       <c r="AC61" s="11">
-        <v>2954005</v>
+        <v>4606202</v>
       </c>
       <c r="AD61" s="11">
-        <v>3119135</v>
+        <v>4887909</v>
       </c>
       <c r="AE61" s="11">
-        <v>4606202</v>
+        <v>1819346</v>
       </c>
       <c r="AF61" s="11">
-        <v>4887909</v>
+        <v>2812568</v>
       </c>
       <c r="AG61" s="11">
-        <v>1819346</v>
+        <v>7006473</v>
       </c>
       <c r="AH61" s="11">
-        <v>2812568</v>
+        <v>4282542</v>
       </c>
       <c r="AI61" s="11">
-        <v>7006473</v>
+        <v>2008443</v>
       </c>
       <c r="AJ61" s="11">
-        <v>4282542</v>
+        <v>2066150</v>
       </c>
       <c r="AK61" s="11">
-        <v>2008443</v>
+        <v>1168207</v>
       </c>
       <c r="AL61" s="11">
-        <v>2066150</v>
+        <v>1961466</v>
       </c>
       <c r="AM61" s="11">
-        <v>1168207</v>
+        <v>2447521</v>
       </c>
       <c r="AN61" s="11">
-        <v>1961466</v>
+        <v>1061240</v>
       </c>
       <c r="AO61" s="11">
-        <v>2447521</v>
+        <v>206210</v>
       </c>
       <c r="AP61" s="11">
-        <v>1061240</v>
-      </c>
-      <c r="AQ61" s="11">
-        <v>206210</v>
+        <v>346948</v>
+      </c>
+      <c r="AQ61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>58</v>
@@ -7942,23 +7977,23 @@
       <c r="AK62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM62" s="13" t="s">
-        <v>58</v>
+      <c r="AL62" s="13">
+        <v>1221727</v>
+      </c>
+      <c r="AM62" s="13">
+        <v>1028514</v>
       </c>
       <c r="AN62" s="13">
-        <v>1221727</v>
+        <v>588370</v>
       </c>
       <c r="AO62" s="13">
-        <v>1028514</v>
+        <v>248893</v>
       </c>
       <c r="AP62" s="13">
-        <v>588370</v>
-      </c>
-      <c r="AQ62" s="13">
-        <v>248893</v>
+        <v>19413</v>
+      </c>
+      <c r="AQ62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR62" s="13" t="s">
         <v>58</v>
@@ -8055,97 +8090,97 @@
         <v>0</v>
       </c>
       <c r="W63" s="15">
-        <v>0</v>
+        <v>1980607</v>
       </c>
       <c r="X63" s="15">
-        <v>0</v>
+        <v>3090584</v>
       </c>
       <c r="Y63" s="15">
-        <v>1980607</v>
+        <v>1793329</v>
       </c>
       <c r="Z63" s="15">
-        <v>3090584</v>
+        <v>1724710</v>
       </c>
       <c r="AA63" s="15">
-        <v>1793329</v>
+        <v>2954005</v>
       </c>
       <c r="AB63" s="15">
-        <v>1724710</v>
+        <v>3119135</v>
       </c>
       <c r="AC63" s="15">
-        <v>2954005</v>
+        <v>4606202</v>
       </c>
       <c r="AD63" s="15">
-        <v>3119135</v>
+        <v>4887909</v>
       </c>
       <c r="AE63" s="15">
-        <v>4606202</v>
+        <v>1819346</v>
       </c>
       <c r="AF63" s="15">
-        <v>4887909</v>
+        <v>2812568</v>
       </c>
       <c r="AG63" s="15">
-        <v>1819346</v>
+        <v>7006473</v>
       </c>
       <c r="AH63" s="15">
-        <v>2812568</v>
+        <v>4282542</v>
       </c>
       <c r="AI63" s="15">
-        <v>7006473</v>
+        <v>2008443</v>
       </c>
       <c r="AJ63" s="15">
-        <v>4282542</v>
+        <v>2066150</v>
       </c>
       <c r="AK63" s="15">
-        <v>2008443</v>
+        <v>1168207</v>
       </c>
       <c r="AL63" s="15">
-        <v>2066150</v>
+        <v>3183193</v>
       </c>
       <c r="AM63" s="15">
-        <v>1168207</v>
+        <v>3476035</v>
       </c>
       <c r="AN63" s="15">
-        <v>3183193</v>
+        <v>1649610</v>
       </c>
       <c r="AO63" s="15">
-        <v>3476035</v>
+        <v>455103</v>
       </c>
       <c r="AP63" s="15">
-        <v>1649610</v>
+        <v>366361</v>
       </c>
       <c r="AQ63" s="15">
-        <v>455103</v>
+        <v>2830148</v>
       </c>
       <c r="AR63" s="15">
-        <v>385615</v>
+        <v>2595170</v>
       </c>
       <c r="AS63" s="15">
-        <v>2830148</v>
+        <v>4712599</v>
       </c>
       <c r="AT63" s="15">
-        <v>2592469</v>
+        <v>12525126</v>
       </c>
       <c r="AU63" s="15">
-        <v>4782086</v>
+        <v>9801675</v>
       </c>
       <c r="AV63" s="15">
-        <v>12431845</v>
+        <v>5399415</v>
       </c>
       <c r="AW63" s="15">
-        <v>9788263</v>
+        <v>3489335</v>
       </c>
       <c r="AX63" s="15">
-        <v>5399415</v>
+        <v>5660926</v>
       </c>
       <c r="AY63" s="15">
-        <v>3489335</v>
+        <v>3461017</v>
       </c>
       <c r="AZ63" s="15">
-        <v>5660926</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="15">
-        <v>3461017</v>
+        <v>159842</v>
       </c>
       <c r="BB63" s="15">
         <v>0</v>
@@ -8270,11 +8305,11 @@
       <c r="V65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>58</v>
+      <c r="W65" s="15">
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
+        <v>0</v>
       </c>
       <c r="Y65" s="15">
         <v>0</v>
@@ -8486,11 +8521,11 @@
       <c r="V67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>58</v>
+      <c r="W67" s="15">
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <v>0</v>
       </c>
       <c r="Y67" s="15">
         <v>0</v>
@@ -8702,11 +8737,11 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -8860,100 +8895,100 @@
         <v>0</v>
       </c>
       <c r="W70" s="19">
-        <v>0</v>
+        <v>6994529</v>
       </c>
       <c r="X70" s="19">
-        <v>0</v>
+        <v>7173870</v>
       </c>
       <c r="Y70" s="19">
-        <v>6994529</v>
+        <v>5712910</v>
       </c>
       <c r="Z70" s="19">
-        <v>7173870</v>
+        <v>5768587</v>
       </c>
       <c r="AA70" s="19">
-        <v>5712910</v>
+        <v>5282233</v>
       </c>
       <c r="AB70" s="19">
-        <v>5768587</v>
+        <v>5826290</v>
       </c>
       <c r="AC70" s="19">
-        <v>5282233</v>
+        <v>8099742</v>
       </c>
       <c r="AD70" s="19">
-        <v>5826290</v>
+        <v>8476816</v>
       </c>
       <c r="AE70" s="19">
-        <v>8099742</v>
+        <v>5864316</v>
       </c>
       <c r="AF70" s="19">
-        <v>8476816</v>
+        <v>4601827</v>
       </c>
       <c r="AG70" s="19">
-        <v>5864316</v>
+        <v>10121948</v>
       </c>
       <c r="AH70" s="19">
-        <v>4601827</v>
+        <v>9665204</v>
       </c>
       <c r="AI70" s="19">
-        <v>10121948</v>
+        <v>7561964</v>
       </c>
       <c r="AJ70" s="19">
-        <v>9665204</v>
+        <v>7040414</v>
       </c>
       <c r="AK70" s="19">
-        <v>7561964</v>
+        <v>8458652</v>
       </c>
       <c r="AL70" s="19">
-        <v>7040414</v>
+        <v>8307631</v>
       </c>
       <c r="AM70" s="19">
-        <v>8458652</v>
+        <v>11354218</v>
       </c>
       <c r="AN70" s="19">
-        <v>8307631</v>
+        <v>9713291</v>
       </c>
       <c r="AO70" s="19">
-        <v>11354218</v>
+        <v>9143825</v>
       </c>
       <c r="AP70" s="19">
-        <v>9713291</v>
+        <v>5203604</v>
       </c>
       <c r="AQ70" s="19">
-        <v>9143825</v>
+        <v>13145359</v>
       </c>
       <c r="AR70" s="19">
-        <v>5222858</v>
+        <v>5834338</v>
       </c>
       <c r="AS70" s="19">
-        <v>13145359</v>
+        <v>10715864</v>
       </c>
       <c r="AT70" s="19">
-        <v>5831637</v>
+        <v>19763435</v>
       </c>
       <c r="AU70" s="19">
-        <v>10785351</v>
+        <v>16697878</v>
       </c>
       <c r="AV70" s="19">
-        <v>19670154</v>
+        <v>12266064</v>
       </c>
       <c r="AW70" s="19">
-        <v>16684466</v>
+        <v>10909431</v>
       </c>
       <c r="AX70" s="19">
-        <v>12266064</v>
+        <v>12078635</v>
       </c>
       <c r="AY70" s="19">
-        <v>10909431</v>
+        <v>12618964</v>
       </c>
       <c r="AZ70" s="19">
-        <v>12078635</v>
+        <v>8511560</v>
       </c>
       <c r="BA70" s="19">
-        <v>12618964</v>
+        <v>10882349</v>
       </c>
       <c r="BB70" s="19">
-        <v>8511560</v>
+        <v>12794643</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.25">
@@ -9452,101 +9487,101 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>305538628</v>
+      </c>
+      <c r="X77" s="11">
+        <v>379245902</v>
       </c>
       <c r="Y77" s="11">
-        <v>305538628</v>
+        <v>429893515</v>
       </c>
       <c r="Z77" s="11">
-        <v>379245902</v>
+        <v>429381665</v>
       </c>
       <c r="AA77" s="11">
-        <v>429893515</v>
+        <v>477799615</v>
       </c>
       <c r="AB77" s="11">
-        <v>429381665</v>
+        <v>446539162</v>
       </c>
       <c r="AC77" s="11">
-        <v>477799615</v>
+        <v>544797980</v>
       </c>
       <c r="AD77" s="11">
-        <v>446539162</v>
+        <v>518050477</v>
       </c>
       <c r="AE77" s="11">
-        <v>544797980</v>
+        <v>535593870</v>
       </c>
       <c r="AF77" s="11">
-        <v>518050477</v>
+        <v>564566327</v>
       </c>
       <c r="AG77" s="11">
-        <v>535593870</v>
+        <v>564960443</v>
       </c>
       <c r="AH77" s="11">
-        <v>564566327</v>
+        <v>553836299</v>
       </c>
       <c r="AI77" s="11">
-        <v>564960443</v>
+        <v>557240458</v>
       </c>
       <c r="AJ77" s="11">
-        <v>553836299</v>
+        <v>568054054</v>
       </c>
       <c r="AK77" s="11">
-        <v>557240458</v>
+        <v>666758857</v>
       </c>
       <c r="AL77" s="11">
-        <v>568054054</v>
+        <v>795580475</v>
       </c>
       <c r="AM77" s="11">
-        <v>666758857</v>
+        <v>741037196</v>
       </c>
       <c r="AN77" s="11">
-        <v>795580475</v>
+        <v>703115004</v>
       </c>
       <c r="AO77" s="11">
-        <v>741037196</v>
+        <v>792839532</v>
       </c>
       <c r="AP77" s="11">
-        <v>703115004</v>
+        <v>832184375</v>
       </c>
       <c r="AQ77" s="11">
-        <v>792839532</v>
+        <v>911269373</v>
       </c>
       <c r="AR77" s="11">
-        <v>832184375</v>
+        <v>950664740</v>
       </c>
       <c r="AS77" s="11">
-        <v>911269373</v>
+        <v>847399376</v>
       </c>
       <c r="AT77" s="11">
-        <v>950664740</v>
+        <v>794411555</v>
       </c>
       <c r="AU77" s="11">
-        <v>847399376</v>
+        <v>769890931</v>
       </c>
       <c r="AV77" s="11">
-        <v>794411555</v>
+        <v>763430532</v>
       </c>
       <c r="AW77" s="11">
-        <v>769890931</v>
+        <v>761811702</v>
       </c>
       <c r="AX77" s="11">
-        <v>763430532</v>
+        <v>739235698</v>
       </c>
       <c r="AY77" s="11">
-        <v>761811702</v>
+        <v>757646631</v>
       </c>
       <c r="AZ77" s="11">
-        <v>739235698</v>
+        <v>869005391</v>
       </c>
       <c r="BA77" s="11">
-        <v>757646631</v>
+        <v>1032169259</v>
       </c>
       <c r="BB77" s="11">
-        <v>869005391</v>
+        <v>1235692800</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
@@ -9611,101 +9646,101 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>283014562</v>
+      </c>
+      <c r="X78" s="13">
+        <v>366655348</v>
       </c>
       <c r="Y78" s="13">
-        <v>283014562</v>
+        <v>397659058</v>
       </c>
       <c r="Z78" s="13">
-        <v>366655348</v>
+        <v>428753250</v>
       </c>
       <c r="AA78" s="13">
-        <v>397659058</v>
+        <v>477012002</v>
       </c>
       <c r="AB78" s="13">
-        <v>428753250</v>
+        <v>514095845</v>
       </c>
       <c r="AC78" s="13">
-        <v>477012002</v>
+        <v>515065139</v>
       </c>
       <c r="AD78" s="13">
-        <v>514095845</v>
+        <v>494745600</v>
       </c>
       <c r="AE78" s="13">
-        <v>515065139</v>
+        <v>521362927</v>
       </c>
       <c r="AF78" s="13">
-        <v>494745600</v>
+        <v>527005376</v>
       </c>
       <c r="AG78" s="13">
-        <v>521362927</v>
+        <v>537680296</v>
       </c>
       <c r="AH78" s="13">
-        <v>527005376</v>
+        <v>520822431</v>
       </c>
       <c r="AI78" s="13">
-        <v>537680296</v>
+        <v>537157676</v>
       </c>
       <c r="AJ78" s="13">
-        <v>520822431</v>
+        <v>573778634</v>
       </c>
       <c r="AK78" s="13">
-        <v>537157676</v>
+        <v>642123506</v>
       </c>
       <c r="AL78" s="13">
-        <v>573778634</v>
+        <v>705136706</v>
       </c>
       <c r="AM78" s="13">
-        <v>642123506</v>
+        <v>686713753</v>
       </c>
       <c r="AN78" s="13">
-        <v>705136706</v>
+        <v>636293976</v>
       </c>
       <c r="AO78" s="13">
-        <v>686713753</v>
+        <v>671694673</v>
       </c>
       <c r="AP78" s="13">
-        <v>636293976</v>
+        <v>708783377</v>
       </c>
       <c r="AQ78" s="13">
-        <v>671694673</v>
+        <v>799702701</v>
       </c>
       <c r="AR78" s="13">
-        <v>708783377</v>
+        <v>780579589</v>
       </c>
       <c r="AS78" s="13">
-        <v>799702701</v>
+        <v>805918730</v>
       </c>
       <c r="AT78" s="13">
-        <v>780579589</v>
+        <v>728859647</v>
       </c>
       <c r="AU78" s="13">
-        <v>805918730</v>
+        <v>697035489</v>
       </c>
       <c r="AV78" s="13">
-        <v>728859647</v>
+        <v>708842935</v>
       </c>
       <c r="AW78" s="13">
-        <v>697035489</v>
+        <v>726584911</v>
       </c>
       <c r="AX78" s="13">
-        <v>708842935</v>
+        <v>682778321</v>
       </c>
       <c r="AY78" s="13">
-        <v>726584911</v>
+        <v>708824389</v>
       </c>
       <c r="AZ78" s="13">
-        <v>682778321</v>
+        <v>799020295</v>
       </c>
       <c r="BA78" s="13">
-        <v>708824389</v>
+        <v>926590360</v>
       </c>
       <c r="BB78" s="13">
-        <v>799020295</v>
+        <v>982475207</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
@@ -9770,101 +9805,101 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>345680774</v>
+      </c>
+      <c r="X79" s="11">
+        <v>447843853</v>
       </c>
       <c r="Y79" s="11">
-        <v>345680774</v>
+        <v>375201661</v>
       </c>
       <c r="Z79" s="11">
-        <v>447843853</v>
+        <v>453658537</v>
       </c>
       <c r="AA79" s="11">
-        <v>375201661</v>
-      </c>
-      <c r="AB79" s="11">
-        <v>453658537</v>
-      </c>
-      <c r="AC79" s="11">
         <v>481850636</v>
       </c>
-      <c r="AD79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE79" s="11" t="s">
-        <v>58</v>
+      <c r="AB79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD79" s="11">
+        <v>505125000</v>
+      </c>
+      <c r="AE79" s="11">
+        <v>542370909</v>
       </c>
       <c r="AF79" s="11">
-        <v>505125000</v>
+        <v>610650000</v>
       </c>
       <c r="AG79" s="11">
-        <v>542370909</v>
+        <v>610162047</v>
       </c>
       <c r="AH79" s="11">
-        <v>610650000</v>
+        <v>572573554</v>
       </c>
       <c r="AI79" s="11">
-        <v>610162047</v>
-      </c>
-      <c r="AJ79" s="11">
-        <v>572573554</v>
+        <v>585283850</v>
+      </c>
+      <c r="AJ79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK79" s="11">
-        <v>585283850</v>
-      </c>
-      <c r="AL79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM79" s="11">
         <v>618362500</v>
       </c>
-      <c r="AN79" s="11">
+      <c r="AL79" s="11">
         <v>847450000</v>
       </c>
-      <c r="AO79" s="11" t="s">
-        <v>58</v>
+      <c r="AM79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO79" s="11">
+        <v>926717949</v>
       </c>
       <c r="AP79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ79" s="11">
-        <v>926717949</v>
-      </c>
-      <c r="AR79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS79" s="11" t="s">
-        <v>58</v>
+      <c r="AQ79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS79" s="11">
+        <v>1134510204</v>
       </c>
       <c r="AT79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU79" s="11">
-        <v>1134510204</v>
+      <c r="AU79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV79" s="11">
-        <v>0</v>
+        <v>870940000</v>
       </c>
       <c r="AW79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX79" s="11">
-        <v>870940000</v>
+        <v>800942649</v>
+      </c>
+      <c r="AX79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY79" s="11">
-        <v>800942649</v>
+        <v>790373333</v>
       </c>
       <c r="AZ79" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BA79" s="11">
-        <v>790373333</v>
-      </c>
-      <c r="BB79" s="11" t="s">
-        <v>58</v>
+        <v>849929134</v>
+      </c>
+      <c r="BB79" s="11">
+        <v>786395250</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.25">
@@ -10046,38 +10081,38 @@
       <c r="AP81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ81" s="11" t="s">
-        <v>58</v>
+      <c r="AQ81" s="11">
+        <v>922556277</v>
       </c>
       <c r="AR81" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS81" s="11">
-        <v>922556277</v>
+        <v>926306893</v>
+      </c>
+      <c r="AS81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT81" s="11">
-        <v>926306893</v>
+        <v>840377778</v>
       </c>
       <c r="AU81" s="11">
-        <v>48364495</v>
+        <v>837796391</v>
       </c>
       <c r="AV81" s="11">
-        <v>840377778</v>
-      </c>
-      <c r="AW81" s="11">
-        <v>837796391</v>
-      </c>
-      <c r="AX81" s="11">
         <v>828666667</v>
       </c>
+      <c r="AW81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX81" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY81" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AZ81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA81" s="11" t="s">
-        <v>58</v>
+      <c r="BA81" s="11">
+        <v>828196891</v>
       </c>
       <c r="BB81" s="11" t="s">
         <v>58</v>
@@ -10205,38 +10240,38 @@
       <c r="AP82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>58</v>
+      <c r="AQ82" s="13">
+        <v>855241379</v>
       </c>
       <c r="AR82" s="13">
-        <v>740679846</v>
+        <v>805092768</v>
       </c>
       <c r="AS82" s="13">
-        <v>855241379</v>
+        <v>773952866</v>
       </c>
       <c r="AT82" s="13">
-        <v>803745636</v>
+        <v>744363244</v>
       </c>
       <c r="AU82" s="13">
-        <v>776209970</v>
+        <v>765073911</v>
       </c>
       <c r="AV82" s="13">
-        <v>740565931</v>
+        <v>742375523</v>
       </c>
       <c r="AW82" s="13">
-        <v>764690820</v>
+        <v>799389462</v>
       </c>
       <c r="AX82" s="13">
-        <v>742375523</v>
+        <v>792291952</v>
       </c>
       <c r="AY82" s="13">
-        <v>799389462</v>
-      </c>
-      <c r="AZ82" s="13">
-        <v>792291952</v>
-      </c>
-      <c r="BA82" s="13">
         <v>773930456</v>
+      </c>
+      <c r="AZ82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB82" s="13" t="s">
         <v>58</v>
@@ -10304,68 +10339,68 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>283186589</v>
+      </c>
+      <c r="X83" s="11">
+        <v>335022656</v>
       </c>
       <c r="Y83" s="11">
-        <v>283186589</v>
+        <v>391471076</v>
       </c>
       <c r="Z83" s="11">
-        <v>335022656</v>
+        <v>473041690</v>
       </c>
       <c r="AA83" s="11">
-        <v>391471076</v>
+        <v>469560483</v>
       </c>
       <c r="AB83" s="11">
-        <v>473041690</v>
+        <v>514963678</v>
       </c>
       <c r="AC83" s="11">
-        <v>469560483</v>
+        <v>465038062</v>
       </c>
       <c r="AD83" s="11">
-        <v>514963678</v>
+        <v>495279056</v>
       </c>
       <c r="AE83" s="11">
-        <v>465038062</v>
+        <v>504393124</v>
       </c>
       <c r="AF83" s="11">
-        <v>495279056</v>
+        <v>514839466</v>
       </c>
       <c r="AG83" s="11">
-        <v>504393124</v>
+        <v>507458029</v>
       </c>
       <c r="AH83" s="11">
-        <v>514839466</v>
+        <v>504659675</v>
       </c>
       <c r="AI83" s="11">
-        <v>507458029</v>
+        <v>560860933</v>
       </c>
       <c r="AJ83" s="11">
-        <v>504659675</v>
+        <v>606442618</v>
       </c>
       <c r="AK83" s="11">
-        <v>560860933</v>
+        <v>631463243</v>
       </c>
       <c r="AL83" s="11">
-        <v>606442618</v>
+        <v>728898551</v>
       </c>
       <c r="AM83" s="11">
-        <v>631463243</v>
+        <v>664906547</v>
       </c>
       <c r="AN83" s="11">
-        <v>728898551</v>
+        <v>677675607</v>
       </c>
       <c r="AO83" s="11">
-        <v>664906547</v>
+        <v>731241135</v>
       </c>
       <c r="AP83" s="11">
-        <v>677675607</v>
-      </c>
-      <c r="AQ83" s="11">
-        <v>731241135</v>
+        <v>739761194</v>
+      </c>
+      <c r="AQ83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR83" s="11" t="s">
         <v>58</v>
@@ -10508,23 +10543,23 @@
       <c r="AK84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM84" s="13" t="s">
-        <v>58</v>
+      <c r="AL84" s="13">
+        <v>777674729</v>
+      </c>
+      <c r="AM84" s="13">
+        <v>716734495</v>
       </c>
       <c r="AN84" s="13">
-        <v>777674729</v>
+        <v>764116883</v>
       </c>
       <c r="AO84" s="13">
-        <v>716734495</v>
+        <v>861221453</v>
       </c>
       <c r="AP84" s="13">
-        <v>764116883</v>
-      </c>
-      <c r="AQ84" s="13">
-        <v>861221453</v>
+        <v>882409091</v>
+      </c>
+      <c r="AQ84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR84" s="13" t="s">
         <v>58</v>

--- a/database/industries/felezat/faira/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3296,107 +3296,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>1160</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>1160</v>
+        <v>61</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>300</v>
+        <v>634</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>634</v>
+        <v>120</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>647</v>
+        <v>563</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>684</v>
+        <v>307</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>307</v>
+        <v>843</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>843</v>
+        <v>2314</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>2314</v>
+        <v>2277</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>2277</v>
+        <v>1120</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>1120</v>
+        <v>153</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>153</v>
+        <v>879</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>879</v>
+        <v>1645</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>1645</v>
+        <v>1825</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>1825</v>
+        <v>748</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>748</v>
+        <v>1443</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>1443</v>
+        <v>401</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>401</v>
+        <v>2101</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>2101</v>
+        <v>1545</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>1545</v>
+        <v>1814</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>1814</v>
+        <v>2039</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>2039</v>
+        <v>1282</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>1282</v>
+        <v>1202</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>1066</v>
+        <v>1163</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>1163</v>
+        <v>946</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>946</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,107 +3455,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>6200</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>6200</v>
+        <v>3520</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>3520</v>
+        <v>7858</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>7858</v>
+        <v>9522</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>9522</v>
+        <v>10202</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>10202</v>
+        <v>8126</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>8126</v>
+        <v>4633</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>4633</v>
+        <v>4708</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>4708</v>
+        <v>11659</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>11659</v>
+        <v>9065</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>9065</v>
+        <v>394</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>394</v>
+        <v>6659</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>6659</v>
+        <v>10783</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>10783</v>
+        <v>9172</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>9172</v>
+        <v>10269</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>10269</v>
+        <v>8441</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>8441</v>
+        <v>9192</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>9192</v>
+        <v>11599</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>11599</v>
+        <v>12616</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>12616</v>
+        <v>12986</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>12986</v>
+        <v>10997</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>10997</v>
+        <v>10851</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>10851</v>
+        <v>7961</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>7961</v>
+        <v>8101</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>8101</v>
+        <v>601</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>601</v>
+        <v>5697</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>5697</v>
+        <v>7796</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>7796</v>
+        <v>6153</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>6153</v>
+        <v>9053</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>9053</v>
+        <v>14965</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>14965</v>
+        <v>14256</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>14256</v>
+        <v>14267</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>14267</v>
+        <v>13091</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>13091</v>
+        <v>14632</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,20 +3614,20 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>2041</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>2041</v>
+        <v>3028</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>3028</v>
+        <v>2096</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>2096</v>
+        <v>497</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="13" t="n">
         <v>0</v>
@@ -3639,22 +3639,22 @@
         <v>0</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>458</v>
+        <v>207</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="13" t="n">
         <v>0</v>
@@ -3678,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>692</v>
+        <v>920</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="13" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>61</v>
+        <v>772</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,8 +3773,8 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="16" t="n">
         <v>0</v>
@@ -3785,8 +3785,8 @@
       <c r="X14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" s="16" t="n">
-        <v>0</v>
+      <c r="Y14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z14" s="16" t="s">
         <v>58</v>
@@ -3931,106 +3931,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>9401</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>9401</v>
+        <v>6609</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>6609</v>
+        <v>10034</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>10034</v>
+        <v>10519</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>10519</v>
+        <v>10502</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>10502</v>
+        <v>8760</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>8760</v>
+        <v>4753</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>4753</v>
+        <v>5308</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>5308</v>
+        <v>12764</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>12764</v>
+        <v>9835</v>
       </c>
       <c r="AE15" s="18" t="n">
+        <v>1078</v>
+      </c>
+      <c r="AF15" s="18" t="n">
+        <v>6966</v>
+      </c>
+      <c r="AG15" s="18" t="n">
+        <v>11727</v>
+      </c>
+      <c r="AH15" s="18" t="n">
+        <v>11486</v>
+      </c>
+      <c r="AI15" s="18" t="n">
+        <v>12546</v>
+      </c>
+      <c r="AJ15" s="18" t="n">
+        <v>9561</v>
+      </c>
+      <c r="AK15" s="18" t="n">
+        <v>9345</v>
+      </c>
+      <c r="AL15" s="18" t="n">
+        <v>12478</v>
+      </c>
+      <c r="AM15" s="18" t="n">
+        <v>14261</v>
+      </c>
+      <c r="AN15" s="18" t="n">
+        <v>14811</v>
+      </c>
+      <c r="AO15" s="18" t="n">
+        <v>11745</v>
+      </c>
+      <c r="AP15" s="18" t="n">
+        <v>12981</v>
+      </c>
+      <c r="AQ15" s="18" t="n">
+        <v>8362</v>
+      </c>
+      <c r="AR15" s="18" t="n">
+        <v>10894</v>
+      </c>
+      <c r="AS15" s="18" t="n">
+        <v>3066</v>
+      </c>
+      <c r="AT15" s="18" t="n">
+        <v>7511</v>
+      </c>
+      <c r="AU15" s="18" t="n">
         <v>9835</v>
       </c>
-      <c r="AF15" s="18" t="n">
-        <v>1078</v>
-      </c>
-      <c r="AG15" s="18" t="n">
-        <v>6966</v>
-      </c>
-      <c r="AH15" s="18" t="n">
-        <v>11727</v>
-      </c>
-      <c r="AI15" s="18" t="n">
-        <v>11486</v>
-      </c>
-      <c r="AJ15" s="18" t="n">
-        <v>12546</v>
-      </c>
-      <c r="AK15" s="18" t="n">
-        <v>9561</v>
-      </c>
-      <c r="AL15" s="18" t="n">
-        <v>9345</v>
-      </c>
-      <c r="AM15" s="18" t="n">
-        <v>12478</v>
-      </c>
-      <c r="AN15" s="18" t="n">
-        <v>14261</v>
-      </c>
-      <c r="AO15" s="18" t="n">
-        <v>14811</v>
-      </c>
-      <c r="AP15" s="18" t="n">
-        <v>11745</v>
-      </c>
-      <c r="AQ15" s="18" t="n">
-        <v>12981</v>
-      </c>
-      <c r="AR15" s="18" t="n">
-        <v>8362</v>
-      </c>
-      <c r="AS15" s="18" t="n">
-        <v>10894</v>
-      </c>
-      <c r="AT15" s="18" t="n">
-        <v>3066</v>
-      </c>
-      <c r="AU15" s="18" t="n">
-        <v>7511</v>
-      </c>
       <c r="AV15" s="18" t="n">
-        <v>9835</v>
+        <v>7435</v>
       </c>
       <c r="AW15" s="18" t="n">
-        <v>7435</v>
+        <v>10255</v>
       </c>
       <c r="AX15" s="18" t="n">
-        <v>10255</v>
+        <v>14965</v>
       </c>
       <c r="AY15" s="18" t="n">
-        <v>14965</v>
+        <v>15322</v>
       </c>
       <c r="AZ15" s="18" t="n">
-        <v>15322</v>
+        <v>15491</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>15491</v>
+        <v>14809</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>14809</v>
+        <v>15127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,26 +4206,26 @@
       <c r="AN17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
+      <c r="AO17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>315</v>
+        <v>2161</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>2161</v>
+        <v>96</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="13" t="n">
         <v>0</v>
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="13" t="n">
         <v>0</v>
@@ -4365,35 +4365,35 @@
       <c r="AN18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="16" t="s">
-        <v>58</v>
+      <c r="AO18" s="16" t="n">
+        <v>319</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>319</v>
+        <v>2005</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>2005</v>
+        <v>6089</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>6089</v>
+        <v>3343</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>3343</v>
+        <v>10445</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>10445</v>
+        <v>7166</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>7166</v>
+        <v>4365</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>4365</v>
+        <v>7145</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>7145</v>
+        <v>4472</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="16" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,68 +4464,68 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>6994</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>6994</v>
+        <v>9225</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>9225</v>
+        <v>4581</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>4581</v>
+        <v>3646</v>
       </c>
       <c r="Y19" s="13" t="n">
-        <v>3646</v>
+        <v>6291</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>6291</v>
+        <v>6057</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>6057</v>
+        <v>9905</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>9905</v>
+        <v>9869</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>9869</v>
+        <v>3607</v>
       </c>
       <c r="AD19" s="13" t="n">
-        <v>3607</v>
+        <v>5463</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>5463</v>
+        <v>13807</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>13807</v>
+        <v>8486</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>8486</v>
+        <v>3581</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>3581</v>
+        <v>3407</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>3407</v>
+        <v>1850</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>1850</v>
+        <v>2691</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>2691</v>
+        <v>3681</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>3681</v>
+        <v>1566</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>1566</v>
+        <v>282</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>282</v>
-      </c>
-      <c r="AO19" s="13" t="n">
         <v>469</v>
+      </c>
+      <c r="AO19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP19" s="13" t="s">
         <v>58</v>
@@ -4668,23 +4668,23 @@
       <c r="AI20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ20" s="16" t="s">
-        <v>58</v>
+      <c r="AJ20" s="16" t="n">
+        <v>1571</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>1571</v>
+        <v>1435</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>1435</v>
+        <v>770</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>770</v>
+        <v>289</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>289</v>
-      </c>
-      <c r="AO20" s="16" t="n">
         <v>22</v>
+      </c>
+      <c r="AO20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP20" s="16" t="s">
         <v>58</v>
@@ -4781,106 +4781,106 @@
         <v>0</v>
       </c>
       <c r="U21" s="18" t="n">
-        <v>0</v>
+        <v>6994</v>
       </c>
       <c r="V21" s="18" t="n">
-        <v>6994</v>
+        <v>9225</v>
       </c>
       <c r="W21" s="18" t="n">
-        <v>9225</v>
+        <v>4581</v>
       </c>
       <c r="X21" s="18" t="n">
-        <v>4581</v>
+        <v>3646</v>
       </c>
       <c r="Y21" s="18" t="n">
-        <v>3646</v>
+        <v>6291</v>
       </c>
       <c r="Z21" s="18" t="n">
-        <v>6291</v>
+        <v>6057</v>
       </c>
       <c r="AA21" s="18" t="n">
-        <v>6057</v>
+        <v>9905</v>
       </c>
       <c r="AB21" s="18" t="n">
-        <v>9905</v>
+        <v>9869</v>
       </c>
       <c r="AC21" s="18" t="n">
-        <v>9869</v>
+        <v>3607</v>
       </c>
       <c r="AD21" s="18" t="n">
-        <v>3607</v>
+        <v>5463</v>
       </c>
       <c r="AE21" s="18" t="n">
-        <v>5463</v>
+        <v>13807</v>
       </c>
       <c r="AF21" s="18" t="n">
-        <v>13807</v>
+        <v>8486</v>
       </c>
       <c r="AG21" s="18" t="n">
-        <v>8486</v>
+        <v>3581</v>
       </c>
       <c r="AH21" s="18" t="n">
-        <v>3581</v>
+        <v>3407</v>
       </c>
       <c r="AI21" s="18" t="n">
-        <v>3407</v>
+        <v>1850</v>
       </c>
       <c r="AJ21" s="18" t="n">
-        <v>1850</v>
+        <v>4262</v>
       </c>
       <c r="AK21" s="18" t="n">
-        <v>4262</v>
+        <v>5116</v>
       </c>
       <c r="AL21" s="18" t="n">
-        <v>5116</v>
+        <v>2336</v>
       </c>
       <c r="AM21" s="18" t="n">
-        <v>2336</v>
+        <v>571</v>
       </c>
       <c r="AN21" s="18" t="n">
-        <v>571</v>
+        <v>491</v>
       </c>
       <c r="AO21" s="18" t="n">
-        <v>491</v>
+        <v>319</v>
       </c>
       <c r="AP21" s="18" t="n">
-        <v>319</v>
+        <v>3064</v>
       </c>
       <c r="AQ21" s="18" t="n">
-        <v>3064</v>
+        <v>6089</v>
       </c>
       <c r="AR21" s="18" t="n">
-        <v>6089</v>
+        <v>3658</v>
       </c>
       <c r="AS21" s="18" t="n">
-        <v>3658</v>
+        <v>12606</v>
       </c>
       <c r="AT21" s="18" t="n">
-        <v>12606</v>
+        <v>7262</v>
       </c>
       <c r="AU21" s="18" t="n">
-        <v>7262</v>
+        <v>4365</v>
       </c>
       <c r="AV21" s="18" t="n">
-        <v>4365</v>
+        <v>7145</v>
       </c>
       <c r="AW21" s="18" t="n">
-        <v>7145</v>
+        <v>4472</v>
       </c>
       <c r="AX21" s="18" t="n">
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="18" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AZ21" s="18" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="18" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="BB21" s="18" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,8 +4994,8 @@
       <c r="T23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>58</v>
+      <c r="U23" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="18" t="n">
         <v>0</v>
@@ -5152,106 +5152,106 @@
         <v>0</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>0</v>
+        <v>16395</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>16395</v>
+        <v>15834</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>15834</v>
+        <v>14615</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>14615</v>
+        <v>14165</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>14165</v>
+        <v>16793</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>16793</v>
+        <v>14817</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>14817</v>
+        <v>14658</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>14658</v>
+        <v>15177</v>
       </c>
       <c r="AC24" s="22" t="n">
-        <v>15177</v>
+        <v>16371</v>
       </c>
       <c r="AD24" s="22" t="n">
-        <v>16371</v>
+        <v>15298</v>
       </c>
       <c r="AE24" s="22" t="n">
-        <v>15298</v>
+        <v>14885</v>
       </c>
       <c r="AF24" s="22" t="n">
-        <v>14885</v>
+        <v>15452</v>
       </c>
       <c r="AG24" s="22" t="n">
-        <v>15452</v>
+        <v>15308</v>
       </c>
       <c r="AH24" s="22" t="n">
-        <v>15308</v>
+        <v>14893</v>
       </c>
       <c r="AI24" s="22" t="n">
-        <v>14893</v>
+        <v>14396</v>
       </c>
       <c r="AJ24" s="22" t="n">
-        <v>14396</v>
+        <v>13823</v>
       </c>
       <c r="AK24" s="22" t="n">
-        <v>13823</v>
+        <v>14461</v>
       </c>
       <c r="AL24" s="22" t="n">
-        <v>14461</v>
+        <v>14814</v>
       </c>
       <c r="AM24" s="22" t="n">
-        <v>14814</v>
+        <v>14832</v>
       </c>
       <c r="AN24" s="22" t="n">
-        <v>14832</v>
+        <v>15302</v>
       </c>
       <c r="AO24" s="22" t="n">
-        <v>15302</v>
+        <v>12064</v>
       </c>
       <c r="AP24" s="22" t="n">
-        <v>12064</v>
+        <v>16045</v>
       </c>
       <c r="AQ24" s="22" t="n">
-        <v>16045</v>
+        <v>14451</v>
       </c>
       <c r="AR24" s="22" t="n">
-        <v>14451</v>
+        <v>14552</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>14552</v>
+        <v>15672</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>15672</v>
+        <v>14773</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>14773</v>
+        <v>14200</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>14580</v>
+        <v>14727</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>14727</v>
+        <v>14965</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>14965</v>
+        <v>15515</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>15515</v>
+        <v>15491</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>15491</v>
+        <v>15106</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>15106</v>
+        <v>15127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,107 +5744,107 @@
       <c r="T31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>58</v>
+      <c r="U31" s="13" t="n">
+        <v>1385</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>1385</v>
+        <v>1281</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>1281</v>
+        <v>1249</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>1249</v>
+        <v>1069</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>1038</v>
+        <v>549</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>549</v>
+        <v>99</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>99</v>
+        <v>733</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>783</v>
+        <v>196</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>196</v>
+        <v>632</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>632</v>
+        <v>281</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>370</v>
+        <v>875</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>875</v>
+        <v>758</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>758</v>
+        <v>699</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>699</v>
+        <v>1313</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>1313</v>
+        <v>941</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>941</v>
+        <v>320</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>173</v>
+        <v>641</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>641</v>
+        <v>1679</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>1679</v>
+        <v>2503</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>2503</v>
+        <v>1749</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>1749</v>
+        <v>1880</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>1880</v>
+        <v>1311</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>1311</v>
+        <v>1514</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>1514</v>
+        <v>371</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>371</v>
+        <v>1093</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>1093</v>
+        <v>1250</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>1250</v>
+        <v>1686</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>1686</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,107 +5903,107 @@
       <c r="T32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>58</v>
+      <c r="U32" s="16" t="n">
+        <v>12498</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>12498</v>
+        <v>6096</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>6096</v>
+        <v>7711</v>
       </c>
       <c r="X32" s="16" t="n">
-        <v>7711</v>
+        <v>8231</v>
       </c>
       <c r="Y32" s="16" t="n">
-        <v>8231</v>
+        <v>2333</v>
       </c>
       <c r="Z32" s="16" t="n">
-        <v>2333</v>
+        <v>4789</v>
       </c>
       <c r="AA32" s="16" t="n">
-        <v>4789</v>
+        <v>6678</v>
       </c>
       <c r="AB32" s="16" t="n">
-        <v>6678</v>
+        <v>6364</v>
       </c>
       <c r="AC32" s="16" t="n">
+        <v>6668</v>
+      </c>
+      <c r="AD32" s="16" t="n">
+        <v>3162</v>
+      </c>
+      <c r="AE32" s="16" t="n">
+        <v>4598</v>
+      </c>
+      <c r="AF32" s="16" t="n">
+        <v>9371</v>
+      </c>
+      <c r="AG32" s="16" t="n">
+        <v>9399</v>
+      </c>
+      <c r="AH32" s="16" t="n">
+        <v>8303</v>
+      </c>
+      <c r="AI32" s="16" t="n">
+        <v>10291</v>
+      </c>
+      <c r="AJ32" s="16" t="n">
         <v>6364</v>
       </c>
-      <c r="AD32" s="16" t="n">
-        <v>6668</v>
-      </c>
-      <c r="AE32" s="16" t="n">
-        <v>3162</v>
-      </c>
-      <c r="AF32" s="16" t="n">
-        <v>4598</v>
-      </c>
-      <c r="AG32" s="16" t="n">
-        <v>9371</v>
-      </c>
-      <c r="AH32" s="16" t="n">
-        <v>9399</v>
-      </c>
-      <c r="AI32" s="16" t="n">
-        <v>8303</v>
-      </c>
-      <c r="AJ32" s="16" t="n">
-        <v>10291</v>
-      </c>
       <c r="AK32" s="16" t="n">
-        <v>6364</v>
+        <v>10718</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>10718</v>
+        <v>11222</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>11222</v>
+        <v>11771</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>11771</v>
+        <v>6449</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>6449</v>
+        <v>12590</v>
       </c>
       <c r="AP32" s="16" t="n">
-        <v>12590</v>
+        <v>3939</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>3939</v>
+        <v>6706</v>
       </c>
       <c r="AR32" s="16" t="n">
-        <v>6706</v>
+        <v>8101</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>8101</v>
+        <v>7129</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>7129</v>
+        <v>7742</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>7742</v>
+        <v>7184</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>7184</v>
+        <v>7980</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>7980</v>
+        <v>11218</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>11218</v>
+        <v>10249</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>10249</v>
+        <v>9772</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>9772</v>
+        <v>10507</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>10507</v>
+        <v>11421</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>11421</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,65 +6062,65 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>3048</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>3048</v>
+        <v>3042</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>3042</v>
+        <v>843</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>843</v>
+        <v>123</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>123</v>
+        <v>1493</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="13" t="n">
         <v>0</v>
@@ -6129,40 +6129,40 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>50</v>
+        <v>959</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>635</v>
+        <v>1179</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6221,8 +6221,8 @@
       <c r="T34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>58</v>
+      <c r="U34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V34" s="16" t="n">
         <v>0</v>
@@ -6233,8 +6233,8 @@
       <c r="X34" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Y34" s="16" t="n">
-        <v>0</v>
+      <c r="Y34" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z34" s="16" t="s">
         <v>58</v>
@@ -6379,106 +6379,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="18" t="n">
-        <v>0</v>
+        <v>16931</v>
       </c>
       <c r="V35" s="18" t="n">
-        <v>16931</v>
+        <v>10419</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>10419</v>
+        <v>9803</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>9803</v>
+        <v>9423</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>9423</v>
+        <v>4864</v>
       </c>
       <c r="Z35" s="18" t="n">
-        <v>4864</v>
+        <v>5338</v>
       </c>
       <c r="AA35" s="18" t="n">
-        <v>5338</v>
+        <v>6777</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>6777</v>
+        <v>7217</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>7217</v>
+        <v>7726</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>7726</v>
+        <v>3378</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>3378</v>
+        <v>5699</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>5699</v>
+        <v>10257</v>
       </c>
       <c r="AG35" s="18" t="n">
-        <v>10257</v>
+        <v>10274</v>
       </c>
       <c r="AH35" s="18" t="n">
-        <v>10274</v>
+        <v>8673</v>
       </c>
       <c r="AI35" s="18" t="n">
-        <v>8673</v>
+        <v>11326</v>
       </c>
       <c r="AJ35" s="18" t="n">
-        <v>11326</v>
+        <v>7162</v>
       </c>
       <c r="AK35" s="18" t="n">
-        <v>7162</v>
+        <v>11417</v>
       </c>
       <c r="AL35" s="18" t="n">
-        <v>11417</v>
+        <v>12535</v>
       </c>
       <c r="AM35" s="18" t="n">
-        <v>12535</v>
+        <v>12751</v>
       </c>
       <c r="AN35" s="18" t="n">
-        <v>12751</v>
+        <v>6769</v>
       </c>
       <c r="AO35" s="18" t="n">
-        <v>6769</v>
+        <v>12861</v>
       </c>
       <c r="AP35" s="18" t="n">
-        <v>12861</v>
+        <v>4112</v>
       </c>
       <c r="AQ35" s="18" t="n">
-        <v>4112</v>
+        <v>7396</v>
       </c>
       <c r="AR35" s="18" t="n">
-        <v>7396</v>
+        <v>9780</v>
       </c>
       <c r="AS35" s="18" t="n">
-        <v>9780</v>
+        <v>9632</v>
       </c>
       <c r="AT35" s="18" t="n">
-        <v>9632</v>
+        <v>9541</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>9541</v>
+        <v>10023</v>
       </c>
       <c r="AV35" s="18" t="n">
-        <v>10023</v>
+        <v>9291</v>
       </c>
       <c r="AW35" s="18" t="n">
-        <v>9291</v>
+        <v>12807</v>
       </c>
       <c r="AX35" s="18" t="n">
-        <v>12807</v>
+        <v>10620</v>
       </c>
       <c r="AY35" s="18" t="n">
-        <v>10620</v>
+        <v>11500</v>
       </c>
       <c r="AZ35" s="18" t="n">
-        <v>11500</v>
+        <v>12936</v>
       </c>
       <c r="BA35" s="18" t="n">
-        <v>12936</v>
+        <v>13107</v>
       </c>
       <c r="BB35" s="18" t="n">
-        <v>13107</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,26 +6654,26 @@
       <c r="AN37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="13" t="s">
-        <v>58</v>
+      <c r="AO37" s="13" t="n">
+        <v>2772</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>2772</v>
+        <v>1059</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>315</v>
+        <v>2161</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>2161</v>
+        <v>96</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="13" t="n">
         <v>0</v>
@@ -6685,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="13" t="n">
         <v>0</v>
@@ -6813,35 +6813,35 @@
       <c r="AN38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="16" t="s">
-        <v>58</v>
+      <c r="AO38" s="16" t="n">
+        <v>319</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>319</v>
+        <v>2005</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>2005</v>
+        <v>6089</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>6089</v>
+        <v>16471</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>16471</v>
+        <v>10445</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>10445</v>
+        <v>7166</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>7166</v>
+        <v>4365</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>4365</v>
+        <v>7145</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>7145</v>
+        <v>4472</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="16" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,68 +6912,68 @@
       <c r="T39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>58</v>
+      <c r="U39" s="13" t="n">
+        <v>6994</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>6994</v>
+        <v>9225</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>9225</v>
+        <v>4581</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>4581</v>
+        <v>3646</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>3646</v>
+        <v>6291</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>6291</v>
+        <v>6057</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>6057</v>
+        <v>9905</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>9905</v>
+        <v>9869</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>9869</v>
+        <v>3607</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>3607</v>
+        <v>5463</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>5463</v>
+        <v>13807</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>13807</v>
+        <v>8486</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>8486</v>
+        <v>3581</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>3581</v>
+        <v>3407</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>3407</v>
+        <v>1850</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>1850</v>
+        <v>2691</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>2691</v>
+        <v>3681</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>3681</v>
+        <v>1566</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>1566</v>
+        <v>282</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>282</v>
-      </c>
-      <c r="AO39" s="13" t="n">
         <v>469</v>
+      </c>
+      <c r="AO39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP39" s="13" t="s">
         <v>58</v>
@@ -7116,23 +7116,23 @@
       <c r="AI40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ40" s="16" t="s">
-        <v>58</v>
+      <c r="AJ40" s="16" t="n">
+        <v>1571</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>1571</v>
+        <v>1435</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>1435</v>
+        <v>770</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>770</v>
+        <v>289</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>289</v>
-      </c>
-      <c r="AO40" s="16" t="n">
         <v>22</v>
+      </c>
+      <c r="AO40" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP40" s="16" t="s">
         <v>58</v>
@@ -7229,106 +7229,106 @@
         <v>0</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>0</v>
+        <v>6994</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>6994</v>
+        <v>9225</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>9225</v>
+        <v>4581</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>4581</v>
+        <v>3646</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>3646</v>
+        <v>6291</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>6291</v>
+        <v>6057</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>6057</v>
+        <v>9905</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>9905</v>
+        <v>9869</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>9869</v>
+        <v>3607</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>3607</v>
+        <v>5463</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>5463</v>
+        <v>13807</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>13807</v>
+        <v>8486</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>8486</v>
+        <v>3581</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>3581</v>
+        <v>3407</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>3407</v>
+        <v>1850</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>1850</v>
+        <v>4262</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>4262</v>
+        <v>5116</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>5116</v>
+        <v>2336</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>2336</v>
+        <v>571</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>571</v>
+        <v>491</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>491</v>
+        <v>3091</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>3091</v>
+        <v>3064</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>3064</v>
+        <v>6089</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>6089</v>
+        <v>16786</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>16786</v>
+        <v>12606</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>12606</v>
+        <v>7262</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>7262</v>
+        <v>4365</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>4365</v>
+        <v>7145</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>7145</v>
+        <v>4472</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,8 +7442,8 @@
       <c r="T43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>58</v>
+      <c r="U43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="18" t="n">
         <v>0</v>
@@ -7656,8 +7656,8 @@
       <c r="T45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="18" t="s">
-        <v>58</v>
+      <c r="U45" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="18" t="n">
         <v>0</v>
@@ -7814,106 +7814,106 @@
         <v>0</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>0</v>
+        <v>23925</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>23925</v>
+        <v>19644</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>19644</v>
+        <v>14384</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>14384</v>
+        <v>13069</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>13069</v>
+        <v>11155</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>11155</v>
+        <v>11395</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>11395</v>
+        <v>16682</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>16682</v>
+        <v>17086</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>17086</v>
+        <v>11333</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>11333</v>
+        <v>8841</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>8841</v>
+        <v>19506</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>19506</v>
+        <v>18743</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>18743</v>
+        <v>13855</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>13855</v>
+        <v>12080</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>12080</v>
+        <v>13176</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>13176</v>
+        <v>11424</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>11424</v>
+        <v>16533</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>16533</v>
+        <v>14871</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>14871</v>
+        <v>13322</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>13322</v>
+        <v>7260</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>7260</v>
+        <v>15952</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>15952</v>
+        <v>7176</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>7176</v>
+        <v>13485</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>13485</v>
+        <v>26566</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>26566</v>
+        <v>22238</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>22238</v>
+        <v>16803</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>16803</v>
+        <v>14388</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>14388</v>
+        <v>16436</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>16436</v>
+        <v>17279</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>17279</v>
+        <v>10620</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>10620</v>
+        <v>11693</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>11693</v>
+        <v>12936</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>12936</v>
+        <v>13404</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>13404</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8406,107 +8406,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>423171</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>423171</v>
+        <v>485814</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>485814</v>
+        <v>536937</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>536937</v>
+        <v>459009</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>459009</v>
+        <v>495956</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>495956</v>
+        <v>245150</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>245150</v>
+        <v>53935</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>53935</v>
+        <v>379731</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>379731</v>
+        <v>419370</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>419370</v>
+        <v>110655</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>110655</v>
+        <v>357055</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>357055</v>
+        <v>155628</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>155628</v>
+        <v>145997</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>145997</v>
+        <v>210180</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>210180</v>
+        <v>583414</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>583414</v>
+        <v>603050</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>603050</v>
+        <v>517985</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>517985</v>
+        <v>923190</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>923190</v>
+        <v>746062</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>746062</v>
+        <v>266299</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>266299</v>
+        <v>246954</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>246954</v>
+        <v>164465</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>164465</v>
+        <v>543183</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>543183</v>
+        <v>1333817</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>1333817</v>
+        <v>1927037</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>1927037</v>
+        <v>1335240</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>1335240</v>
+        <v>1432206</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>1432206</v>
+        <v>969138</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>969138</v>
+        <v>1147077</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>1147077</v>
+        <v>322401</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>322401</v>
+        <v>1128161</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>1128161</v>
+        <v>1544616</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>1544616</v>
+        <v>2197675</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>2197675</v>
+        <v>912605</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,107 +8565,107 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>3537116</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>3537116</v>
+        <v>2235131</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>2235131</v>
+        <v>3066349</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>3066349</v>
+        <v>3529068</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>3529068</v>
+        <v>1112869</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>1112869</v>
+        <v>2462005</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>2462005</v>
+        <v>3439605</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>3439605</v>
+        <v>3148561</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>3148561</v>
+        <v>3476448</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>3476448</v>
+        <v>1666391</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>1666391</v>
+        <v>2472254</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>2472254</v>
+        <v>4880627</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>4880627</v>
+        <v>5048745</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>5048745</v>
+        <v>4764084</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>4764084</v>
+        <v>6608093</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>6608093</v>
+        <v>4487490</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>4487490</v>
+        <v>7360198</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>7360198</v>
+        <v>7140491</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>7140491</v>
+        <v>7906518</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>7906518</v>
+        <v>4570944</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>4570944</v>
+        <v>10068257</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>10068257</v>
+        <v>3074703</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>3074703</v>
+        <v>5404491</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>5404491</v>
+        <v>5904492</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>5904492</v>
+        <v>4969166</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>4969166</v>
+        <v>5487862</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>5487862</v>
+        <v>5219786</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>5219786</v>
+        <v>5448571</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>5448571</v>
+        <v>7951592</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>7951592</v>
+        <v>8189159</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>8189159</v>
+        <v>9054641</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>9054641</v>
+        <v>10322867</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>10322867</v>
+        <v>12510797</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>12510797</v>
+        <v>7636552</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,65 +8724,65 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>1053635</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>1053635</v>
+        <v>1362341</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>1362341</v>
+        <v>316295</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>316295</v>
+        <v>55800</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>55800</v>
+        <v>719403</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>719403</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>0</v>
+        <v>60615</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>60615</v>
+        <v>149152</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>149152</v>
+        <v>12213</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>12213</v>
+        <v>286166</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>286166</v>
+        <v>346407</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>346407</v>
+        <v>358779</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>358779</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>0</v>
+        <v>98938</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>98938</v>
+        <v>33898</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>33898</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>0</v>
+        <v>36142</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>36142</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="13" t="n">
         <v>0</v>
@@ -8791,40 +8791,40 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>0</v>
+        <v>55591</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>55591</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>0</v>
+        <v>43547</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>43547</v>
+        <v>768104</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>768104</v>
+        <v>0</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>0</v>
+        <v>59278</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>59278</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>0</v>
+        <v>539705</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>539705</v>
+        <v>927160</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>927160</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>0</v>
+        <v>296511</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8883,8 +8883,8 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="16" t="n">
         <v>0</v>
@@ -8895,8 +8895,8 @@
       <c r="X56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Y56" s="16" t="n">
-        <v>0</v>
+      <c r="Y56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z56" s="16" t="s">
         <v>58</v>
@@ -9041,106 +9041,106 @@
         <v>0</v>
       </c>
       <c r="U57" s="18" t="n">
-        <v>0</v>
+        <v>5013922</v>
       </c>
       <c r="V57" s="18" t="n">
-        <v>5013922</v>
+        <v>4083286</v>
       </c>
       <c r="W57" s="18" t="n">
-        <v>4083286</v>
+        <v>3919581</v>
       </c>
       <c r="X57" s="18" t="n">
-        <v>3919581</v>
+        <v>4043877</v>
       </c>
       <c r="Y57" s="18" t="n">
-        <v>4043877</v>
+        <v>2328228</v>
       </c>
       <c r="Z57" s="18" t="n">
-        <v>2328228</v>
+        <v>2707155</v>
       </c>
       <c r="AA57" s="18" t="n">
-        <v>2707155</v>
+        <v>3493540</v>
       </c>
       <c r="AB57" s="18" t="n">
-        <v>3493540</v>
+        <v>3588907</v>
       </c>
       <c r="AC57" s="18" t="n">
-        <v>3588907</v>
+        <v>4044970</v>
       </c>
       <c r="AD57" s="18" t="n">
-        <v>4044970</v>
+        <v>1789259</v>
       </c>
       <c r="AE57" s="18" t="n">
-        <v>1789259</v>
+        <v>3115475</v>
       </c>
       <c r="AF57" s="18" t="n">
-        <v>3115475</v>
+        <v>5382662</v>
       </c>
       <c r="AG57" s="18" t="n">
-        <v>5382662</v>
+        <v>5553521</v>
       </c>
       <c r="AH57" s="18" t="n">
-        <v>5553521</v>
+        <v>4974264</v>
       </c>
       <c r="AI57" s="18" t="n">
-        <v>4974264</v>
+        <v>7290445</v>
       </c>
       <c r="AJ57" s="18" t="n">
-        <v>7290445</v>
+        <v>5124438</v>
       </c>
       <c r="AK57" s="18" t="n">
-        <v>5124438</v>
+        <v>7878183</v>
       </c>
       <c r="AL57" s="18" t="n">
-        <v>7878183</v>
+        <v>8063681</v>
       </c>
       <c r="AM57" s="18" t="n">
-        <v>8063681</v>
+        <v>8688722</v>
       </c>
       <c r="AN57" s="18" t="n">
-        <v>8688722</v>
+        <v>4837243</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>4837243</v>
+        <v>10315211</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>10315211</v>
+        <v>3239168</v>
       </c>
       <c r="AQ57" s="18" t="n">
-        <v>3239168</v>
+        <v>6003265</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>6003265</v>
+        <v>7238309</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>7238309</v>
+        <v>6896203</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>6896203</v>
+        <v>6866649</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>6866649</v>
+        <v>7420096</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>7420096</v>
+        <v>6417709</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>6417709</v>
+        <v>9157947</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>9157947</v>
+        <v>8511560</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>8511560</v>
+        <v>10722507</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>10722507</v>
+        <v>12794643</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>12794643</v>
+        <v>14708472</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>14708472</v>
+        <v>8845668</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9316,26 +9316,26 @@
       <c r="AN59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO59" s="13" t="s">
-        <v>58</v>
+      <c r="AO59" s="13" t="n">
+        <v>2557326</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>2557326</v>
+        <v>980959</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>980959</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>0</v>
+        <v>264719</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>264719</v>
+        <v>1810478</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>1810478</v>
+        <v>79552</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>79552</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="13" t="n">
         <v>0</v>
@@ -9347,10 +9347,10 @@
         <v>0</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>0</v>
+        <v>159842</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>159842</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="13" t="n">
         <v>0</v>
@@ -9475,35 +9475,35 @@
       <c r="AN60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO60" s="16" t="s">
-        <v>58</v>
+      <c r="AO60" s="16" t="n">
+        <v>272822</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>272822</v>
+        <v>1614211</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>1614211</v>
+        <v>4712599</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>4712599</v>
+        <v>12260407</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>12260407</v>
+        <v>7991197</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>7991197</v>
+        <v>5319863</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>5319863</v>
+        <v>3489335</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>3489335</v>
+        <v>5660926</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>5660926</v>
+        <v>3461017</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>3461017</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="16" t="n">
         <v>0</v>
@@ -9512,10 +9512,10 @@
         <v>0</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>0</v>
+        <v>439036</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>439036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,68 +9574,68 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>1980607</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>1980607</v>
+        <v>3090584</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>3090584</v>
+        <v>1793329</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>1793329</v>
+        <v>1724710</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>1724710</v>
+        <v>2954005</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>2954005</v>
+        <v>3119135</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>3119135</v>
+        <v>4606202</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>4606202</v>
+        <v>4887909</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>4887909</v>
+        <v>1819346</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>1819346</v>
+        <v>2812568</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>2812568</v>
+        <v>7006473</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>7006473</v>
+        <v>4282542</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>4282542</v>
+        <v>2008443</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>2008443</v>
+        <v>2066150</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>2066150</v>
+        <v>1168207</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>1168207</v>
+        <v>1961466</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>1961466</v>
+        <v>2447521</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>2447521</v>
+        <v>1061240</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>1061240</v>
+        <v>206210</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>206210</v>
-      </c>
-      <c r="AO61" s="13" t="n">
         <v>346948</v>
+      </c>
+      <c r="AO61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP61" s="13" t="s">
         <v>58</v>
@@ -9778,23 +9778,23 @@
       <c r="AI62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ62" s="16" t="s">
-        <v>58</v>
+      <c r="AJ62" s="16" t="n">
+        <v>1221727</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>1221727</v>
+        <v>1028514</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>1028514</v>
+        <v>588370</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>588370</v>
+        <v>248893</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>248893</v>
-      </c>
-      <c r="AO62" s="16" t="n">
         <v>19413</v>
+      </c>
+      <c r="AO62" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP62" s="16" t="s">
         <v>58</v>
@@ -9891,106 +9891,106 @@
         <v>0</v>
       </c>
       <c r="U63" s="18" t="n">
-        <v>0</v>
+        <v>1980607</v>
       </c>
       <c r="V63" s="18" t="n">
-        <v>1980607</v>
+        <v>3090584</v>
       </c>
       <c r="W63" s="18" t="n">
-        <v>3090584</v>
+        <v>1793329</v>
       </c>
       <c r="X63" s="18" t="n">
-        <v>1793329</v>
+        <v>1724710</v>
       </c>
       <c r="Y63" s="18" t="n">
-        <v>1724710</v>
+        <v>2954005</v>
       </c>
       <c r="Z63" s="18" t="n">
-        <v>2954005</v>
+        <v>3119135</v>
       </c>
       <c r="AA63" s="18" t="n">
-        <v>3119135</v>
+        <v>4606202</v>
       </c>
       <c r="AB63" s="18" t="n">
-        <v>4606202</v>
+        <v>4887909</v>
       </c>
       <c r="AC63" s="18" t="n">
-        <v>4887909</v>
+        <v>1819346</v>
       </c>
       <c r="AD63" s="18" t="n">
-        <v>1819346</v>
+        <v>2812568</v>
       </c>
       <c r="AE63" s="18" t="n">
-        <v>2812568</v>
+        <v>7006473</v>
       </c>
       <c r="AF63" s="18" t="n">
-        <v>7006473</v>
+        <v>4282542</v>
       </c>
       <c r="AG63" s="18" t="n">
-        <v>4282542</v>
+        <v>2008443</v>
       </c>
       <c r="AH63" s="18" t="n">
-        <v>2008443</v>
+        <v>2066150</v>
       </c>
       <c r="AI63" s="18" t="n">
-        <v>2066150</v>
+        <v>1168207</v>
       </c>
       <c r="AJ63" s="18" t="n">
-        <v>1168207</v>
+        <v>3183193</v>
       </c>
       <c r="AK63" s="18" t="n">
-        <v>3183193</v>
+        <v>3476035</v>
       </c>
       <c r="AL63" s="18" t="n">
-        <v>3476035</v>
+        <v>1649610</v>
       </c>
       <c r="AM63" s="18" t="n">
-        <v>1649610</v>
+        <v>455103</v>
       </c>
       <c r="AN63" s="18" t="n">
-        <v>455103</v>
+        <v>366361</v>
       </c>
       <c r="AO63" s="18" t="n">
-        <v>366361</v>
+        <v>2830148</v>
       </c>
       <c r="AP63" s="18" t="n">
-        <v>2830148</v>
+        <v>2595170</v>
       </c>
       <c r="AQ63" s="18" t="n">
-        <v>2595170</v>
+        <v>4712599</v>
       </c>
       <c r="AR63" s="18" t="n">
-        <v>4712599</v>
+        <v>12525126</v>
       </c>
       <c r="AS63" s="18" t="n">
-        <v>12525126</v>
+        <v>9801675</v>
       </c>
       <c r="AT63" s="18" t="n">
-        <v>9801675</v>
+        <v>5399415</v>
       </c>
       <c r="AU63" s="18" t="n">
-        <v>5399415</v>
+        <v>3489335</v>
       </c>
       <c r="AV63" s="18" t="n">
-        <v>3489335</v>
+        <v>5660926</v>
       </c>
       <c r="AW63" s="18" t="n">
-        <v>5660926</v>
+        <v>3461017</v>
       </c>
       <c r="AX63" s="18" t="n">
-        <v>3461017</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="18" t="n">
-        <v>0</v>
+        <v>159842</v>
       </c>
       <c r="AZ63" s="18" t="n">
-        <v>159842</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="18" t="n">
-        <v>0</v>
+        <v>439036</v>
       </c>
       <c r="BB63" s="18" t="n">
-        <v>439036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,8 +10106,8 @@
       <c r="T65" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="18" t="s">
-        <v>58</v>
+      <c r="U65" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="23" t="n">
         <v>0</v>
@@ -10322,8 +10322,8 @@
       <c r="T67" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="18" t="s">
-        <v>58</v>
+      <c r="U67" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="23" t="n">
         <v>0</v>
@@ -10538,8 +10538,8 @@
       <c r="T69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>58</v>
+      <c r="U69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="13" t="n">
         <v>0</v>
@@ -10696,106 +10696,106 @@
         <v>0</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>0</v>
+        <v>6994529</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>6994529</v>
+        <v>7173870</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>7173870</v>
+        <v>5712910</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>5712910</v>
+        <v>5768587</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>5768587</v>
+        <v>5282233</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>5282233</v>
+        <v>5826290</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>5826290</v>
+        <v>8099742</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>8099742</v>
+        <v>8476816</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>8476816</v>
+        <v>5864316</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>5864316</v>
+        <v>4601827</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>4601827</v>
+        <v>10121948</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>10121948</v>
+        <v>9665204</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>9665204</v>
+        <v>7561964</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>7561964</v>
+        <v>7040414</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>7040414</v>
+        <v>8458652</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>8458652</v>
+        <v>8307631</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>8307631</v>
+        <v>11354218</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>11354218</v>
+        <v>9713291</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>9713291</v>
+        <v>9143825</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>9143825</v>
+        <v>5203604</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>5203604</v>
+        <v>13145359</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>13145359</v>
+        <v>5834338</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>5834338</v>
+        <v>10715864</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>10715864</v>
+        <v>19763435</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>19763435</v>
+        <v>16697878</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>16697878</v>
+        <v>12266064</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>12266064</v>
+        <v>10909431</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>10909431</v>
+        <v>12078635</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>12078635</v>
+        <v>12618964</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>12618964</v>
+        <v>8511560</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>8511560</v>
+        <v>10882349</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>10882349</v>
+        <v>12794643</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>12794643</v>
+        <v>15147508</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>15147508</v>
+        <v>8845668</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,107 +11288,107 @@
       <c r="T77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
+      <c r="U77" s="13" t="n">
+        <v>305538628</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>305538628</v>
+        <v>379245902</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>379245902</v>
+        <v>429893515</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>429893515</v>
+        <v>429381665</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>429381665</v>
+        <v>477799615</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>477799615</v>
+        <v>446539162</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>446539162</v>
+        <v>544797980</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>544797980</v>
+        <v>518050477</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>518050477</v>
+        <v>535593870</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>535593870</v>
+        <v>564566327</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>564566327</v>
+        <v>564960443</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>564960443</v>
+        <v>553836299</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>553836299</v>
+        <v>557240458</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>557240458</v>
+        <v>568054054</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>568054054</v>
+        <v>666758857</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>666758857</v>
+        <v>795580475</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>795580475</v>
+        <v>741037196</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>741037196</v>
+        <v>703115004</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>703115004</v>
+        <v>792839532</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>792839532</v>
+        <v>832184375</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>832184375</v>
+        <v>911269373</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>911269373</v>
+        <v>950664740</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>950664740</v>
+        <v>847399376</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>847399376</v>
+        <v>794411555</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>794411555</v>
+        <v>769890931</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>769890931</v>
+        <v>763430532</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>763430532</v>
+        <v>761811702</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>761811702</v>
+        <v>739235698</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>739235698</v>
+        <v>757646631</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>757646631</v>
+        <v>869005391</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>869005391</v>
+        <v>1032169259</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>1032169259</v>
+        <v>1235692800</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>1235692800</v>
+        <v>1303484579</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>1303484579</v>
+        <v>1224973154</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11447,107 +11447,107 @@
       <c r="T78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="16" t="s">
-        <v>58</v>
+      <c r="U78" s="16" t="n">
+        <v>283014562</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>283014562</v>
+        <v>366655348</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>366655348</v>
+        <v>397659058</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>397659058</v>
+        <v>428753250</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>428753250</v>
+        <v>477012002</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>477012002</v>
+        <v>514095845</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>514095845</v>
+        <v>515065139</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>515065139</v>
+        <v>494745600</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>494745600</v>
+        <v>521362927</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>521362927</v>
+        <v>527005376</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>527005376</v>
+        <v>537680296</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>537680296</v>
+        <v>520822431</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>520822431</v>
+        <v>537157676</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>537157676</v>
+        <v>573778634</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>573778634</v>
+        <v>642123506</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>642123506</v>
+        <v>705136706</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>705136706</v>
+        <v>686713753</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>686713753</v>
+        <v>636293976</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>636293976</v>
+        <v>671694673</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>671694673</v>
+        <v>708783377</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>708783377</v>
+        <v>799702701</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>799702701</v>
+        <v>780579589</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>780579589</v>
+        <v>805918730</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>805918730</v>
+        <v>728859647</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>728859647</v>
+        <v>697035489</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>697035489</v>
+        <v>708842935</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>708842935</v>
+        <v>726584911</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>726584911</v>
+        <v>682778321</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>682778321</v>
+        <v>708824389</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>708824389</v>
+        <v>799020295</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>799020295</v>
+        <v>926590360</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>926590360</v>
+        <v>982475207</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>982475207</v>
+        <v>1095420454</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>1095420454</v>
+        <v>1066259704</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11606,107 +11606,107 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13" t="n">
+        <v>345680774</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>345680774</v>
+        <v>447843853</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>447843853</v>
+        <v>375201661</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>375201661</v>
+        <v>453658537</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>453658537</v>
-      </c>
-      <c r="Z79" s="13" t="n">
         <v>481850636</v>
       </c>
+      <c r="Z79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AA79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB79" s="13" t="s">
-        <v>58</v>
+      <c r="AB79" s="13" t="n">
+        <v>505125000</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>505125000</v>
+        <v>542370909</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>542370909</v>
+        <v>610650000</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>610650000</v>
+        <v>610162047</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>610162047</v>
+        <v>572573554</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>572573554</v>
-      </c>
-      <c r="AH79" s="13" t="n">
         <v>585283850</v>
       </c>
-      <c r="AI79" s="13" t="s">
-        <v>58</v>
+      <c r="AH79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI79" s="13" t="n">
+        <v>618362500</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>618362500</v>
-      </c>
-      <c r="AK79" s="13" t="n">
         <v>847450000</v>
       </c>
+      <c r="AK79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN79" s="13" t="n">
+      <c r="AM79" s="13" t="n">
         <v>926717949</v>
       </c>
+      <c r="AN79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO79" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AP79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR79" s="13" t="n">
+      <c r="AQ79" s="13" t="n">
         <v>1134510204</v>
       </c>
+      <c r="AR79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT79" s="13" t="s">
-        <v>58</v>
+      <c r="AT79" s="13" t="n">
+        <v>870940000</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>870940000</v>
-      </c>
-      <c r="AV79" s="13" t="n">
         <v>800942649</v>
       </c>
-      <c r="AW79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX79" s="13" t="n">
+      <c r="AV79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW79" s="13" t="n">
         <v>790373333</v>
       </c>
-      <c r="AY79" s="13" t="s">
-        <v>58</v>
+      <c r="AX79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY79" s="13" t="n">
+        <v>849929134</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>849929134</v>
-      </c>
-      <c r="BA79" s="13" t="n">
         <v>786395250</v>
       </c>
-      <c r="BB79" s="13" t="s">
-        <v>58</v>
+      <c r="BA79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB79" s="13" t="n">
+        <v>988370000</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11882,27 +11882,27 @@
       <c r="AN81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO81" s="13" t="s">
-        <v>58</v>
+      <c r="AO81" s="13" t="n">
+        <v>922556277</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>922556277</v>
-      </c>
-      <c r="AQ81" s="13" t="n">
         <v>926306893</v>
       </c>
-      <c r="AR81" s="13" t="s">
-        <v>58</v>
+      <c r="AQ81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR81" s="13" t="n">
+        <v>840377778</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>840377778</v>
+        <v>837796391</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>837796391</v>
-      </c>
-      <c r="AU81" s="13" t="n">
         <v>828666667</v>
       </c>
+      <c r="AU81" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV81" s="13" t="s">
         <v>58</v>
       </c>
@@ -11912,11 +11912,11 @@
       <c r="AX81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ81" s="13" t="n">
+      <c r="AY81" s="13" t="n">
         <v>828196891</v>
+      </c>
+      <c r="AZ81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA81" s="13" t="s">
         <v>58</v>
@@ -12041,47 +12041,47 @@
       <c r="AN82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO82" s="16" t="s">
-        <v>58</v>
+      <c r="AO82" s="16" t="n">
+        <v>855241379</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>855241379</v>
+        <v>805092768</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>805092768</v>
+        <v>773952866</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>773952866</v>
+        <v>744363244</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>744363244</v>
+        <v>765073911</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>765073911</v>
+        <v>742375523</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>742375523</v>
+        <v>799389462</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>799389462</v>
+        <v>792291952</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>792291952</v>
-      </c>
-      <c r="AX82" s="16" t="n">
         <v>773930456</v>
       </c>
+      <c r="AX82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AY82" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AZ82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB82" s="16" t="n">
+      <c r="BA82" s="16" t="n">
         <v>1478235690</v>
+      </c>
+      <c r="BB82" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12140,68 +12140,68 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>283186589</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>283186589</v>
+        <v>335022656</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>335022656</v>
+        <v>391471076</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>391471076</v>
+        <v>473041690</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>473041690</v>
+        <v>469560483</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>469560483</v>
+        <v>514963678</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>514963678</v>
+        <v>465038062</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>465038062</v>
+        <v>495279056</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>495279056</v>
+        <v>504393124</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>504393124</v>
+        <v>514839466</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>514839466</v>
+        <v>507458029</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>507458029</v>
+        <v>504659675</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>504659675</v>
+        <v>560860933</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>560860933</v>
+        <v>606442618</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>606442618</v>
+        <v>631463243</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>631463243</v>
+        <v>728898551</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>728898551</v>
+        <v>664906547</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>664906547</v>
+        <v>677675607</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>677675607</v>
+        <v>731241135</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>731241135</v>
-      </c>
-      <c r="AO83" s="13" t="n">
         <v>739761194</v>
+      </c>
+      <c r="AO83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP83" s="13" t="s">
         <v>58</v>
@@ -12344,23 +12344,23 @@
       <c r="AI84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ84" s="16" t="s">
-        <v>58</v>
+      <c r="AJ84" s="16" t="n">
+        <v>777674729</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>777674729</v>
+        <v>716734495</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>716734495</v>
+        <v>764116883</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>764116883</v>
+        <v>861221453</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>861221453</v>
-      </c>
-      <c r="AO84" s="16" t="n">
         <v>882409091</v>
+      </c>
+      <c r="AO84" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP84" s="16" t="s">
         <v>58</v>
